--- a/Mars QA testcases.xlsx
+++ b/Mars QA testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tripti Mehta\Desktop\Industry Connect\GitHubRepository\ProjectMarsQA1\ProjectMarsQA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95920C-FD8E-48C9-989C-D61E87832130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AB281-2AFE-4E0A-BEFA-71E237B4C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{E9F7D5A9-FBFA-49C3-BA4D-0DAA99558B5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="456">
   <si>
     <t>Use cases</t>
   </si>
@@ -1428,6 +1428,9 @@
   </si>
   <si>
     <t>15. Verify the updated language record  in the table.</t>
+  </si>
+  <si>
+    <t>Manual performed</t>
   </si>
 </sst>
 </file>
@@ -1659,19 +1662,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,19 +1692,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1705,13 +1705,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,7 +2235,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -2243,24 +2246,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2268,64 +2271,64 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
@@ -2342,8 +2345,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5" t="s">
         <v>64</v>
       </c>
@@ -2360,8 +2363,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="5" t="s">
         <v>124</v>
       </c>
@@ -2378,8 +2381,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
@@ -2396,8 +2399,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>125</v>
       </c>
@@ -2414,8 +2417,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
@@ -2432,8 +2435,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
@@ -2472,7 +2475,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -2483,17 +2486,17 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2501,29 +2504,29 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>76</v>
       </c>
@@ -2540,7 +2543,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -2551,17 +2554,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2569,29 +2572,29 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="5" t="s">
         <v>148</v>
       </c>
@@ -2619,10 +2622,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2630,17 +2633,17 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -2648,29 +2651,29 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="5" t="s">
         <v>99</v>
       </c>
@@ -2687,7 +2690,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B55" s="19" t="s">
@@ -2698,17 +2701,17 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="20"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -2716,29 +2719,29 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="5" t="s">
         <v>106</v>
       </c>
@@ -2755,22 +2758,22 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="5" t="s">
         <v>119</v>
       </c>
@@ -2787,48 +2790,28 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="5" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B49:B53"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
@@ -2845,6 +2828,26 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66E9EB-DF28-4FBA-9C5E-A7237299BEA9}">
   <dimension ref="A1:Z549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2923,7 +2926,7 @@
       <c r="A2" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>134</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2942,13 +2945,13 @@
       <c r="H2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="9" t="s">
         <v>165</v>
       </c>
@@ -2959,11 +2962,11 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="9" t="s">
         <v>167</v>
       </c>
@@ -2974,11 +2977,11 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="9" t="s">
         <v>169</v>
       </c>
@@ -2989,13 +2992,13 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3014,11 +3017,11 @@
       <c r="H6" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="9" t="s">
         <v>165</v>
       </c>
@@ -3029,11 +3032,11 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="9" t="s">
         <v>172</v>
       </c>
@@ -3044,11 +3047,11 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>169</v>
       </c>
@@ -3059,11 +3062,11 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="9" t="s">
         <v>173</v>
       </c>
@@ -3074,7 +3077,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
@@ -3099,7 +3102,7 @@
       <c r="H11" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
@@ -3114,7 +3117,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
@@ -3129,7 +3132,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
@@ -3144,7 +3147,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
@@ -3169,7 +3172,7 @@
       <c r="H15" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3186,7 +3189,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
@@ -3201,7 +3204,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
@@ -3216,7 +3219,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
@@ -3241,7 +3244,7 @@
       <c r="H19" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3258,7 +3261,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
@@ -3273,7 +3276,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
@@ -3288,7 +3291,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
@@ -3313,7 +3316,7 @@
       <c r="H23" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3330,7 +3333,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
@@ -3345,7 +3348,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
@@ -3360,7 +3363,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
@@ -3402,7 +3405,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
@@ -3417,7 +3420,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="17"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
@@ -3432,7 +3435,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="18"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
@@ -3457,7 +3460,7 @@
       <c r="H31" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3474,7 +3477,7 @@
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
@@ -3489,7 +3492,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
@@ -3504,7 +3507,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
@@ -3529,7 +3532,7 @@
       <c r="H35" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3546,7 +3549,7 @@
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="19"/>
@@ -3561,7 +3564,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
@@ -3576,7 +3579,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
@@ -3601,7 +3604,7 @@
       <c r="H39" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3618,7 +3621,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="19"/>
@@ -3633,7 +3636,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="19"/>
@@ -3648,7 +3651,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
@@ -3673,7 +3676,7 @@
       <c r="H43" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3690,7 +3693,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="19"/>
@@ -3705,7 +3708,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="19"/>
@@ -3720,7 +3723,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
@@ -3745,7 +3748,7 @@
       <c r="H47" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3762,7 +3765,7 @@
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
@@ -3777,7 +3780,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
@@ -3792,7 +3795,7 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="19"/>
@@ -3807,7 +3810,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
@@ -3832,7 +3835,7 @@
       <c r="H52" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3849,7 +3852,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A54" s="19"/>
@@ -3864,7 +3867,7 @@
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="19"/>
@@ -3879,7 +3882,7 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
@@ -3904,7 +3907,7 @@
       <c r="H56" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="18" t="s">
         <v>437</v>
       </c>
     </row>
@@ -3921,7 +3924,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A58" s="19"/>
@@ -3936,7 +3939,7 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="19"/>
@@ -3951,7 +3954,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="19"/>
@@ -3966,7 +3969,7 @@
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="20"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="19"/>
@@ -3981,7 +3984,7 @@
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="19"/>
@@ -3996,7 +3999,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="19"/>
@@ -4011,7 +4014,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="20"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="19"/>
@@ -4026,7 +4029,7 @@
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="19"/>
@@ -4041,7 +4044,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="19"/>
@@ -4056,7 +4059,7 @@
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="20"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
@@ -4081,11 +4084,11 @@
       <c r="H67" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I67" s="20"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="19"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
         <v>165</v>
       </c>
@@ -4096,11 +4099,11 @@
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="20"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="19"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
         <v>430</v>
       </c>
@@ -4111,11 +4114,11 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="20"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
         <v>169</v>
       </c>
@@ -4126,11 +4129,11 @@
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
-      <c r="I70" s="20"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
         <v>212</v>
       </c>
@@ -4141,11 +4144,11 @@
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="20"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="9" t="s">
         <v>206</v>
       </c>
@@ -4156,11 +4159,11 @@
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="20"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="9" t="s">
         <v>208</v>
       </c>
@@ -4171,11 +4174,11 @@
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="20"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="19"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="9" t="s">
         <v>210</v>
       </c>
@@ -4186,7 +4189,7 @@
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="20"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
@@ -4211,7 +4214,7 @@
       <c r="H75" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I75" s="20" t="s">
+      <c r="I75" s="18" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4228,7 +4231,7 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="20"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A77" s="19"/>
@@ -4243,7 +4246,7 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="20"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="19"/>
@@ -4258,7 +4261,7 @@
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="20"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="19"/>
@@ -4273,7 +4276,7 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="20"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="19"/>
@@ -4288,7 +4291,7 @@
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="20"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="19"/>
@@ -4303,7 +4306,7 @@
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="20"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="19"/>
@@ -4318,7 +4321,7 @@
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="20"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="19"/>
@@ -4333,7 +4336,7 @@
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
-      <c r="I83" s="20"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="19"/>
@@ -4348,7 +4351,7 @@
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="20"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="19"/>
@@ -4363,7 +4366,7 @@
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="20"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="19"/>
@@ -4378,7 +4381,7 @@
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="20"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
@@ -4403,11 +4406,11 @@
       <c r="H87" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I87" s="20"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="19"/>
-      <c r="B88" s="23"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="9" t="s">
         <v>165</v>
       </c>
@@ -4418,11 +4421,11 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="20"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="19"/>
-      <c r="B89" s="23"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="9" t="s">
         <v>432</v>
       </c>
@@ -4433,11 +4436,11 @@
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="20"/>
+      <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="19"/>
-      <c r="B90" s="23"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="9" t="s">
         <v>169</v>
       </c>
@@ -4448,11 +4451,11 @@
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="20"/>
+      <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="19"/>
-      <c r="B91" s="23"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="9" t="s">
         <v>217</v>
       </c>
@@ -4463,11 +4466,11 @@
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="20"/>
+      <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="19"/>
-      <c r="B92" s="23"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="9" t="s">
         <v>218</v>
       </c>
@@ -4478,7 +4481,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="20"/>
+      <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
@@ -4503,7 +4506,7 @@
       <c r="H93" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I93" s="20" t="s">
+      <c r="I93" s="18" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4520,7 +4523,7 @@
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="20"/>
+      <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="19"/>
@@ -4535,7 +4538,7 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
-      <c r="I95" s="20"/>
+      <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="19"/>
@@ -4550,7 +4553,7 @@
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
+      <c r="I96" s="18"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="19"/>
@@ -4565,7 +4568,7 @@
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="20"/>
+      <c r="I97" s="18"/>
     </row>
     <row r="98" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="19"/>
@@ -4580,7 +4583,7 @@
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="20"/>
+      <c r="I98" s="18"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="19"/>
@@ -4595,7 +4598,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
-      <c r="I99" s="20"/>
+      <c r="I99" s="18"/>
     </row>
     <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="19"/>
@@ -4610,7 +4613,7 @@
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="20"/>
+      <c r="I100" s="18"/>
     </row>
     <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="19"/>
@@ -4625,7 +4628,7 @@
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
-      <c r="I101" s="20"/>
+      <c r="I101" s="18"/>
     </row>
     <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="19"/>
@@ -4640,7 +4643,7 @@
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="20"/>
+      <c r="I102" s="18"/>
     </row>
     <row r="103" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="19"/>
@@ -4655,7 +4658,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="20"/>
+      <c r="I103" s="18"/>
     </row>
     <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="19"/>
@@ -4670,7 +4673,7 @@
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="20"/>
+      <c r="I104" s="18"/>
     </row>
     <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="19"/>
@@ -4685,7 +4688,7 @@
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="20"/>
+      <c r="I105" s="18"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
@@ -4710,7 +4713,7 @@
       <c r="H106" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I106" s="20"/>
+      <c r="I106" s="18"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="19"/>
@@ -4725,7 +4728,7 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="19"/>
-      <c r="I107" s="20"/>
+      <c r="I107" s="18"/>
     </row>
     <row r="108" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="19"/>
@@ -4740,7 +4743,7 @@
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="20"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="19"/>
@@ -4755,7 +4758,7 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="20"/>
+      <c r="I109" s="18"/>
     </row>
     <row r="110" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="19"/>
@@ -4770,7 +4773,7 @@
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="20"/>
+      <c r="I110" s="18"/>
     </row>
     <row r="111" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="19"/>
@@ -4785,7 +4788,7 @@
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
-      <c r="I111" s="20"/>
+      <c r="I111" s="18"/>
     </row>
     <row r="112" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="19"/>
@@ -4800,7 +4803,7 @@
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="20"/>
+      <c r="I112" s="18"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="19"/>
@@ -4815,13 +4818,13 @@
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
-      <c r="I113" s="20"/>
+      <c r="I113" s="18"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -4830,14 +4833,14 @@
       <c r="D114" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F114" s="26" t="s">
+      <c r="F114" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26" t="s">
+      <c r="G114" s="31"/>
+      <c r="H114" s="31" t="s">
         <v>164</v>
       </c>
       <c r="I114" s="16" t="s">
@@ -4845,175 +4848,175 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="9" t="s">
         <v>177</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="17"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="20"/>
     </row>
     <row r="116" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="11" t="s">
         <v>197</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="17"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="20"/>
     </row>
     <row r="117" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="17"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="20"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="17"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="20"/>
     </row>
     <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="9" t="s">
         <v>429</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="17"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="20"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="17"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="20"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="9" t="s">
         <v>228</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="17"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="17"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="9" t="s">
         <v>232</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="17"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="9" t="s">
         <v>234</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="17"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="9" t="s">
         <v>446</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="18"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="17"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="31" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -5022,137 +5025,137 @@
       <c r="D126" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F126" s="26" t="s">
+      <c r="F126" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26" t="s">
+      <c r="G126" s="31"/>
+      <c r="H126" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="I126" s="32"/>
+      <c r="I126" s="21"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="30"/>
-      <c r="B127" s="27"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="9" t="s">
         <v>165</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="33"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="22"/>
     </row>
     <row r="128" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="30"/>
-      <c r="B128" s="27"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="33"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="22"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="30"/>
-      <c r="B129" s="27"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="32"/>
       <c r="C129" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="33"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="22"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="30"/>
-      <c r="B130" s="27"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="9" t="s">
         <v>236</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="33"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="22"/>
     </row>
     <row r="131" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="30"/>
-      <c r="B131" s="27"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="9" t="s">
         <v>237</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="33"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="22"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="30"/>
-      <c r="B132" s="27"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="9" t="s">
         <v>238</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="33"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="22"/>
     </row>
     <row r="133" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="30"/>
-      <c r="B133" s="27"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="32"/>
       <c r="C133" s="9" t="s">
         <v>239</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="33"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="22"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="31"/>
-      <c r="B134" s="28"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="9" t="s">
         <v>448</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="34"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="23"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="19" t="s">
@@ -5177,7 +5180,7 @@
       <c r="H135" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I135" s="20" t="s">
+      <c r="I135" s="18" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5194,7 +5197,7 @@
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
-      <c r="I136" s="20"/>
+      <c r="I136" s="18"/>
     </row>
     <row r="137" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A137" s="19"/>
@@ -5209,7 +5212,7 @@
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
       <c r="H137" s="19"/>
-      <c r="I137" s="20"/>
+      <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="19"/>
@@ -5224,7 +5227,7 @@
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
-      <c r="I138" s="20"/>
+      <c r="I138" s="18"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="19"/>
@@ -5239,7 +5242,7 @@
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
-      <c r="I139" s="20"/>
+      <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="19"/>
@@ -5254,7 +5257,7 @@
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="H140" s="19"/>
-      <c r="I140" s="20"/>
+      <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="19"/>
@@ -5269,7 +5272,7 @@
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="20"/>
+      <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="19"/>
@@ -5284,7 +5287,7 @@
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="20"/>
+      <c r="I142" s="18"/>
     </row>
     <row r="143" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="19"/>
@@ -5299,7 +5302,7 @@
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
-      <c r="I143" s="20"/>
+      <c r="I143" s="18"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="19"/>
@@ -5314,7 +5317,7 @@
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="20"/>
+      <c r="I144" s="18"/>
     </row>
     <row r="145" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="19"/>
@@ -5329,7 +5332,7 @@
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
-      <c r="I145" s="20"/>
+      <c r="I145" s="18"/>
     </row>
     <row r="146" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="19"/>
@@ -5344,7 +5347,7 @@
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
-      <c r="I146" s="20"/>
+      <c r="I146" s="18"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="19"/>
@@ -5359,7 +5362,7 @@
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="20"/>
+      <c r="I147" s="18"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
@@ -5384,11 +5387,11 @@
       <c r="H148" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I148" s="20"/>
+      <c r="I148" s="18"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="19"/>
-      <c r="B149" s="23"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="9" t="s">
         <v>165</v>
       </c>
@@ -5399,11 +5402,11 @@
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="20"/>
+      <c r="I149" s="18"/>
     </row>
     <row r="150" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="19"/>
-      <c r="B150" s="23"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="9" t="s">
         <v>434</v>
       </c>
@@ -5414,11 +5417,11 @@
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="20"/>
+      <c r="I150" s="18"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="19"/>
-      <c r="B151" s="23"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="9" t="s">
         <v>169</v>
       </c>
@@ -5429,11 +5432,11 @@
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="20"/>
+      <c r="I151" s="18"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="19"/>
-      <c r="B152" s="23"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="9" t="s">
         <v>236</v>
       </c>
@@ -5444,11 +5447,11 @@
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="20"/>
+      <c r="I152" s="18"/>
     </row>
     <row r="153" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="19"/>
-      <c r="B153" s="23"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="9" t="s">
         <v>243</v>
       </c>
@@ -5459,11 +5462,11 @@
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="20"/>
+      <c r="I153" s="18"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="19"/>
-      <c r="B154" s="23"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="9" t="s">
         <v>244</v>
       </c>
@@ -5474,7 +5477,7 @@
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
-      <c r="I154" s="20"/>
+      <c r="I154" s="18"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
@@ -5499,7 +5502,7 @@
       <c r="H155" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="I155" s="18" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5516,7 +5519,7 @@
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="20"/>
+      <c r="I156" s="18"/>
     </row>
     <row r="157" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A157" s="19"/>
@@ -5531,7 +5534,7 @@
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
-      <c r="I157" s="20"/>
+      <c r="I157" s="18"/>
     </row>
     <row r="158" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="19"/>
@@ -5546,7 +5549,7 @@
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
-      <c r="I158" s="20"/>
+      <c r="I158" s="18"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="19"/>
@@ -5561,7 +5564,7 @@
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
-      <c r="I159" s="20"/>
+      <c r="I159" s="18"/>
     </row>
     <row r="160" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="19"/>
@@ -5576,7 +5579,7 @@
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
-      <c r="I160" s="20"/>
+      <c r="I160" s="18"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="19"/>
@@ -5591,7 +5594,7 @@
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
-      <c r="I161" s="20"/>
+      <c r="I161" s="18"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="19"/>
@@ -5606,7 +5609,7 @@
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
-      <c r="I162" s="20"/>
+      <c r="I162" s="18"/>
     </row>
     <row r="163" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="19"/>
@@ -5621,7 +5624,7 @@
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
-      <c r="I163" s="20"/>
+      <c r="I163" s="18"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="19"/>
@@ -5636,7 +5639,7 @@
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
-      <c r="I164" s="20"/>
+      <c r="I164" s="18"/>
     </row>
     <row r="165" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="19"/>
@@ -5651,7 +5654,7 @@
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
-      <c r="I165" s="20"/>
+      <c r="I165" s="18"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="19"/>
@@ -5666,7 +5669,7 @@
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
-      <c r="I166" s="20"/>
+      <c r="I166" s="18"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="19"/>
@@ -5681,7 +5684,7 @@
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
-      <c r="I167" s="20"/>
+      <c r="I167" s="18"/>
     </row>
     <row r="168" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="19"/>
@@ -5696,7 +5699,7 @@
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
-      <c r="I168" s="20"/>
+      <c r="I168" s="18"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="19"/>
@@ -5711,7 +5714,7 @@
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
-      <c r="I169" s="20"/>
+      <c r="I169" s="18"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="19" t="s">
@@ -5736,7 +5739,7 @@
       <c r="H170" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="I170" s="20"/>
+      <c r="I170" s="18"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="19"/>
@@ -5751,7 +5754,7 @@
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
-      <c r="I171" s="20"/>
+      <c r="I171" s="18"/>
     </row>
     <row r="172" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="19"/>
@@ -5766,7 +5769,7 @@
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
-      <c r="I172" s="20"/>
+      <c r="I172" s="18"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="19"/>
@@ -5781,7 +5784,7 @@
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
-      <c r="I173" s="20"/>
+      <c r="I173" s="18"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="19"/>
@@ -5796,7 +5799,7 @@
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
-      <c r="I174" s="20"/>
+      <c r="I174" s="18"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="19"/>
@@ -5811,7 +5814,7 @@
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
-      <c r="I175" s="20"/>
+      <c r="I175" s="18"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="19"/>
@@ -5826,7 +5829,7 @@
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
       <c r="H176" s="19"/>
-      <c r="I176" s="20"/>
+      <c r="I176" s="18"/>
     </row>
     <row r="177" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="19"/>
@@ -5841,7 +5844,7 @@
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
-      <c r="I177" s="20"/>
+      <c r="I177" s="18"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="19"/>
@@ -5856,7 +5859,7 @@
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
-      <c r="I178" s="20"/>
+      <c r="I178" s="18"/>
     </row>
     <row r="179" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="19" t="s">
@@ -5881,7 +5884,7 @@
       <c r="H179" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I179" s="20" t="s">
+      <c r="I179" s="18" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5898,7 +5901,7 @@
       <c r="F180" s="19"/>
       <c r="G180" s="19"/>
       <c r="H180" s="19"/>
-      <c r="I180" s="20"/>
+      <c r="I180" s="18"/>
     </row>
     <row r="181" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="19"/>
@@ -5913,7 +5916,7 @@
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
       <c r="H181" s="19"/>
-      <c r="I181" s="20"/>
+      <c r="I181" s="18"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="19"/>
@@ -5928,7 +5931,7 @@
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
-      <c r="I182" s="20"/>
+      <c r="I182" s="18"/>
     </row>
     <row r="183" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="19"/>
@@ -5943,7 +5946,7 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
-      <c r="I183" s="20"/>
+      <c r="I183" s="18"/>
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="19" t="s">
@@ -5966,9 +5969,11 @@
       </c>
       <c r="G184" s="19"/>
       <c r="H184" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I184" s="20"/>
+        <v>421</v>
+      </c>
+      <c r="I184" s="18" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="19"/>
@@ -5983,7 +5988,7 @@
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
       <c r="H185" s="19"/>
-      <c r="I185" s="20"/>
+      <c r="I185" s="18"/>
     </row>
     <row r="186" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="19"/>
@@ -5998,7 +6003,7 @@
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
-      <c r="I186" s="20"/>
+      <c r="I186" s="18"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="19"/>
@@ -6013,7 +6018,7 @@
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
       <c r="H187" s="19"/>
-      <c r="I187" s="20"/>
+      <c r="I187" s="18"/>
     </row>
     <row r="188" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="19"/>
@@ -6028,7 +6033,7 @@
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
       <c r="H188" s="19"/>
-      <c r="I188" s="20"/>
+      <c r="I188" s="18"/>
     </row>
     <row r="189" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="19"/>
@@ -6043,7 +6048,7 @@
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
       <c r="H189" s="19"/>
-      <c r="I189" s="20"/>
+      <c r="I189" s="18"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="19" t="s">
@@ -6068,13 +6073,13 @@
       <c r="H190" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I190" s="20" t="s">
+      <c r="I190" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="19"/>
-      <c r="B191" s="25"/>
+      <c r="B191" s="27"/>
       <c r="C191" s="9" t="s">
         <v>165</v>
       </c>
@@ -6085,11 +6090,11 @@
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
       <c r="H191" s="19"/>
-      <c r="I191" s="20"/>
+      <c r="I191" s="18"/>
     </row>
     <row r="192" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="19"/>
-      <c r="B192" s="25"/>
+      <c r="B192" s="27"/>
       <c r="C192" s="9" t="s">
         <v>167</v>
       </c>
@@ -6100,11 +6105,11 @@
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
       <c r="H192" s="19"/>
-      <c r="I192" s="20"/>
+      <c r="I192" s="18"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="19"/>
-      <c r="B193" s="25"/>
+      <c r="B193" s="27"/>
       <c r="C193" s="9" t="s">
         <v>169</v>
       </c>
@@ -6115,11 +6120,11 @@
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
       <c r="H193" s="19"/>
-      <c r="I193" s="20"/>
+      <c r="I193" s="18"/>
     </row>
     <row r="194" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="19"/>
-      <c r="B194" s="25"/>
+      <c r="B194" s="27"/>
       <c r="C194" s="9" t="s">
         <v>212</v>
       </c>
@@ -6130,11 +6135,11 @@
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19"/>
-      <c r="I194" s="20"/>
+      <c r="I194" s="18"/>
     </row>
     <row r="195" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="19"/>
-      <c r="B195" s="25"/>
+      <c r="B195" s="27"/>
       <c r="C195" s="9" t="s">
         <v>206</v>
       </c>
@@ -6145,11 +6150,11 @@
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="H195" s="19"/>
-      <c r="I195" s="20"/>
+      <c r="I195" s="18"/>
     </row>
     <row r="196" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="19"/>
-      <c r="B196" s="25"/>
+      <c r="B196" s="27"/>
       <c r="C196" s="9" t="s">
         <v>208</v>
       </c>
@@ -6160,11 +6165,11 @@
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="H196" s="19"/>
-      <c r="I196" s="20"/>
+      <c r="I196" s="18"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="19"/>
-      <c r="B197" s="25"/>
+      <c r="B197" s="27"/>
       <c r="C197" s="9" t="s">
         <v>210</v>
       </c>
@@ -6175,11 +6180,11 @@
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
       <c r="H197" s="19"/>
-      <c r="I197" s="20"/>
+      <c r="I197" s="18"/>
     </row>
     <row r="198" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="19"/>
-      <c r="B198" s="25"/>
+      <c r="B198" s="27"/>
       <c r="C198" s="9" t="s">
         <v>262</v>
       </c>
@@ -6190,11 +6195,11 @@
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="H198" s="19"/>
-      <c r="I198" s="20"/>
+      <c r="I198" s="18"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="19"/>
-      <c r="B199" s="25"/>
+      <c r="B199" s="27"/>
       <c r="C199" s="9" t="s">
         <v>264</v>
       </c>
@@ -6205,7 +6210,7 @@
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
       <c r="H199" s="19"/>
-      <c r="I199" s="20"/>
+      <c r="I199" s="18"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="19" t="s">
@@ -6230,13 +6235,13 @@
       <c r="H200" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I200" s="20" t="s">
+      <c r="I200" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="19"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="27"/>
       <c r="C201" s="9" t="s">
         <v>165</v>
       </c>
@@ -6247,11 +6252,11 @@
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
       <c r="H201" s="19"/>
-      <c r="I201" s="20"/>
+      <c r="I201" s="18"/>
     </row>
     <row r="202" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="19"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="27"/>
       <c r="C202" s="9" t="s">
         <v>167</v>
       </c>
@@ -6262,11 +6267,11 @@
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="19"/>
-      <c r="I202" s="20"/>
+      <c r="I202" s="18"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="19"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="27"/>
       <c r="C203" s="9" t="s">
         <v>169</v>
       </c>
@@ -6277,11 +6282,11 @@
       <c r="F203" s="19"/>
       <c r="G203" s="19"/>
       <c r="H203" s="19"/>
-      <c r="I203" s="20"/>
+      <c r="I203" s="18"/>
     </row>
     <row r="204" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="19"/>
-      <c r="B204" s="25"/>
+      <c r="B204" s="27"/>
       <c r="C204" s="9" t="s">
         <v>212</v>
       </c>
@@ -6292,11 +6297,11 @@
       <c r="F204" s="19"/>
       <c r="G204" s="19"/>
       <c r="H204" s="19"/>
-      <c r="I204" s="20"/>
+      <c r="I204" s="18"/>
     </row>
     <row r="205" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="19"/>
-      <c r="B205" s="25"/>
+      <c r="B205" s="27"/>
       <c r="C205" s="9" t="s">
         <v>206</v>
       </c>
@@ -6307,11 +6312,11 @@
       <c r="F205" s="19"/>
       <c r="G205" s="19"/>
       <c r="H205" s="19"/>
-      <c r="I205" s="20"/>
+      <c r="I205" s="18"/>
     </row>
     <row r="206" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="19"/>
-      <c r="B206" s="25"/>
+      <c r="B206" s="27"/>
       <c r="C206" s="9" t="s">
         <v>208</v>
       </c>
@@ -6322,11 +6327,11 @@
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
       <c r="H206" s="19"/>
-      <c r="I206" s="20"/>
+      <c r="I206" s="18"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="19"/>
-      <c r="B207" s="25"/>
+      <c r="B207" s="27"/>
       <c r="C207" s="9" t="s">
         <v>210</v>
       </c>
@@ -6337,11 +6342,11 @@
       <c r="F207" s="19"/>
       <c r="G207" s="19"/>
       <c r="H207" s="19"/>
-      <c r="I207" s="20"/>
+      <c r="I207" s="18"/>
     </row>
     <row r="208" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="19"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="27"/>
       <c r="C208" s="9" t="s">
         <v>230</v>
       </c>
@@ -6352,11 +6357,11 @@
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="19"/>
-      <c r="I208" s="20"/>
+      <c r="I208" s="18"/>
     </row>
     <row r="209" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="19"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="27"/>
       <c r="C209" s="9" t="s">
         <v>267</v>
       </c>
@@ -6367,11 +6372,11 @@
       <c r="F209" s="19"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19"/>
-      <c r="I209" s="20"/>
+      <c r="I209" s="18"/>
     </row>
     <row r="210" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="19"/>
-      <c r="B210" s="25"/>
+      <c r="B210" s="27"/>
       <c r="C210" s="9" t="s">
         <v>234</v>
       </c>
@@ -6382,11 +6387,11 @@
       <c r="F210" s="19"/>
       <c r="G210" s="19"/>
       <c r="H210" s="19"/>
-      <c r="I210" s="20"/>
+      <c r="I210" s="18"/>
     </row>
     <row r="211" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="19"/>
-      <c r="B211" s="25"/>
+      <c r="B211" s="27"/>
       <c r="C211" s="9" t="s">
         <v>270</v>
       </c>
@@ -6397,7 +6402,7 @@
       <c r="F211" s="19"/>
       <c r="G211" s="19"/>
       <c r="H211" s="19"/>
-      <c r="I211" s="20"/>
+      <c r="I211" s="18"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="19" t="s">
@@ -6422,13 +6427,13 @@
       <c r="H212" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I212" s="20" t="s">
+      <c r="I212" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="19"/>
-      <c r="B213" s="25"/>
+      <c r="B213" s="27"/>
       <c r="C213" s="9" t="s">
         <v>165</v>
       </c>
@@ -6439,11 +6444,11 @@
       <c r="F213" s="19"/>
       <c r="G213" s="19"/>
       <c r="H213" s="19"/>
-      <c r="I213" s="20"/>
+      <c r="I213" s="18"/>
     </row>
     <row r="214" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="19"/>
-      <c r="B214" s="25"/>
+      <c r="B214" s="27"/>
       <c r="C214" s="9" t="s">
         <v>167</v>
       </c>
@@ -6454,11 +6459,11 @@
       <c r="F214" s="19"/>
       <c r="G214" s="19"/>
       <c r="H214" s="19"/>
-      <c r="I214" s="20"/>
+      <c r="I214" s="18"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="19"/>
-      <c r="B215" s="25"/>
+      <c r="B215" s="27"/>
       <c r="C215" s="9" t="s">
         <v>169</v>
       </c>
@@ -6469,11 +6474,11 @@
       <c r="F215" s="19"/>
       <c r="G215" s="19"/>
       <c r="H215" s="19"/>
-      <c r="I215" s="20"/>
+      <c r="I215" s="18"/>
     </row>
     <row r="216" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="19"/>
-      <c r="B216" s="25"/>
+      <c r="B216" s="27"/>
       <c r="C216" s="9" t="s">
         <v>212</v>
       </c>
@@ -6484,11 +6489,11 @@
       <c r="F216" s="19"/>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
-      <c r="I216" s="20"/>
+      <c r="I216" s="18"/>
     </row>
     <row r="217" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="19"/>
-      <c r="B217" s="25"/>
+      <c r="B217" s="27"/>
       <c r="C217" s="9" t="s">
         <v>206</v>
       </c>
@@ -6499,11 +6504,11 @@
       <c r="F217" s="19"/>
       <c r="G217" s="19"/>
       <c r="H217" s="19"/>
-      <c r="I217" s="20"/>
+      <c r="I217" s="18"/>
     </row>
     <row r="218" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="19"/>
-      <c r="B218" s="25"/>
+      <c r="B218" s="27"/>
       <c r="C218" s="9" t="s">
         <v>208</v>
       </c>
@@ -6514,11 +6519,11 @@
       <c r="F218" s="19"/>
       <c r="G218" s="19"/>
       <c r="H218" s="19"/>
-      <c r="I218" s="20"/>
+      <c r="I218" s="18"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="19"/>
-      <c r="B219" s="25"/>
+      <c r="B219" s="27"/>
       <c r="C219" s="9" t="s">
         <v>210</v>
       </c>
@@ -6529,11 +6534,11 @@
       <c r="F219" s="19"/>
       <c r="G219" s="19"/>
       <c r="H219" s="19"/>
-      <c r="I219" s="20"/>
+      <c r="I219" s="18"/>
     </row>
     <row r="220" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="19"/>
-      <c r="B220" s="25"/>
+      <c r="B220" s="27"/>
       <c r="C220" s="9" t="s">
         <v>230</v>
       </c>
@@ -6544,11 +6549,11 @@
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
       <c r="H220" s="19"/>
-      <c r="I220" s="20"/>
+      <c r="I220" s="18"/>
     </row>
     <row r="221" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="19"/>
-      <c r="B221" s="25"/>
+      <c r="B221" s="27"/>
       <c r="C221" s="9" t="s">
         <v>273</v>
       </c>
@@ -6559,11 +6564,11 @@
       <c r="F221" s="19"/>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
-      <c r="I221" s="20"/>
+      <c r="I221" s="18"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="19"/>
-      <c r="B222" s="25"/>
+      <c r="B222" s="27"/>
       <c r="C222" s="9" t="s">
         <v>234</v>
       </c>
@@ -6574,11 +6579,11 @@
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
       <c r="H222" s="19"/>
-      <c r="I222" s="20"/>
+      <c r="I222" s="18"/>
     </row>
     <row r="223" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="19"/>
-      <c r="B223" s="25"/>
+      <c r="B223" s="27"/>
       <c r="C223" s="9" t="s">
         <v>270</v>
       </c>
@@ -6589,7 +6594,7 @@
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
       <c r="H223" s="19"/>
-      <c r="I223" s="20"/>
+      <c r="I223" s="18"/>
     </row>
     <row r="224" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="19" t="s">
@@ -6614,13 +6619,13 @@
       <c r="H224" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I224" s="20" t="s">
+      <c r="I224" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="19"/>
-      <c r="B225" s="25"/>
+      <c r="B225" s="27"/>
       <c r="C225" s="9" t="s">
         <v>165</v>
       </c>
@@ -6631,11 +6636,11 @@
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
       <c r="H225" s="19"/>
-      <c r="I225" s="20"/>
+      <c r="I225" s="18"/>
     </row>
     <row r="226" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="19"/>
-      <c r="B226" s="25"/>
+      <c r="B226" s="27"/>
       <c r="C226" s="9" t="s">
         <v>167</v>
       </c>
@@ -6646,11 +6651,11 @@
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
-      <c r="I226" s="20"/>
+      <c r="I226" s="18"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="19"/>
-      <c r="B227" s="25"/>
+      <c r="B227" s="27"/>
       <c r="C227" s="9" t="s">
         <v>169</v>
       </c>
@@ -6661,11 +6666,11 @@
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
       <c r="H227" s="19"/>
-      <c r="I227" s="20"/>
+      <c r="I227" s="18"/>
     </row>
     <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="19"/>
-      <c r="B228" s="25"/>
+      <c r="B228" s="27"/>
       <c r="C228" s="9" t="s">
         <v>212</v>
       </c>
@@ -6676,11 +6681,11 @@
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
       <c r="H228" s="19"/>
-      <c r="I228" s="20"/>
+      <c r="I228" s="18"/>
     </row>
     <row r="229" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="19"/>
-      <c r="B229" s="25"/>
+      <c r="B229" s="27"/>
       <c r="C229" s="9" t="s">
         <v>276</v>
       </c>
@@ -6691,11 +6696,11 @@
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
       <c r="H229" s="19"/>
-      <c r="I229" s="20"/>
+      <c r="I229" s="18"/>
     </row>
     <row r="230" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="19"/>
-      <c r="B230" s="25"/>
+      <c r="B230" s="27"/>
       <c r="C230" s="9" t="s">
         <v>208</v>
       </c>
@@ -6706,11 +6711,11 @@
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
-      <c r="I230" s="20"/>
+      <c r="I230" s="18"/>
     </row>
     <row r="231" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="19"/>
-      <c r="B231" s="25"/>
+      <c r="B231" s="27"/>
       <c r="C231" s="9" t="s">
         <v>279</v>
       </c>
@@ -6721,7 +6726,7 @@
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
-      <c r="I231" s="20"/>
+      <c r="I231" s="18"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="19" t="s">
@@ -6746,13 +6751,13 @@
       <c r="H232" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I232" s="20" t="s">
+      <c r="I232" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="19"/>
-      <c r="B233" s="25"/>
+      <c r="B233" s="27"/>
       <c r="C233" s="9" t="s">
         <v>165</v>
       </c>
@@ -6763,11 +6768,11 @@
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
       <c r="H233" s="19"/>
-      <c r="I233" s="20"/>
+      <c r="I233" s="18"/>
     </row>
     <row r="234" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="19"/>
-      <c r="B234" s="25"/>
+      <c r="B234" s="27"/>
       <c r="C234" s="9" t="s">
         <v>167</v>
       </c>
@@ -6778,11 +6783,11 @@
       <c r="F234" s="19"/>
       <c r="G234" s="19"/>
       <c r="H234" s="19"/>
-      <c r="I234" s="20"/>
+      <c r="I234" s="18"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="19"/>
-      <c r="B235" s="25"/>
+      <c r="B235" s="27"/>
       <c r="C235" s="9" t="s">
         <v>169</v>
       </c>
@@ -6793,11 +6798,11 @@
       <c r="F235" s="19"/>
       <c r="G235" s="19"/>
       <c r="H235" s="19"/>
-      <c r="I235" s="20"/>
+      <c r="I235" s="18"/>
     </row>
     <row r="236" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="19"/>
-      <c r="B236" s="25"/>
+      <c r="B236" s="27"/>
       <c r="C236" s="9" t="s">
         <v>212</v>
       </c>
@@ -6808,11 +6813,11 @@
       <c r="F236" s="19"/>
       <c r="G236" s="19"/>
       <c r="H236" s="19"/>
-      <c r="I236" s="20"/>
+      <c r="I236" s="18"/>
     </row>
     <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="19"/>
-      <c r="B237" s="25"/>
+      <c r="B237" s="27"/>
       <c r="C237" s="9" t="s">
         <v>281</v>
       </c>
@@ -6823,11 +6828,11 @@
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
       <c r="H237" s="19"/>
-      <c r="I237" s="20"/>
+      <c r="I237" s="18"/>
     </row>
     <row r="238" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="19"/>
-      <c r="B238" s="25"/>
+      <c r="B238" s="27"/>
       <c r="C238" s="9" t="s">
         <v>208</v>
       </c>
@@ -6838,11 +6843,11 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="19"/>
-      <c r="I238" s="20"/>
+      <c r="I238" s="18"/>
     </row>
     <row r="239" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="19"/>
-      <c r="B239" s="25"/>
+      <c r="B239" s="27"/>
       <c r="C239" s="9" t="s">
         <v>279</v>
       </c>
@@ -6853,7 +6858,7 @@
       <c r="F239" s="19"/>
       <c r="G239" s="19"/>
       <c r="H239" s="19"/>
-      <c r="I239" s="20"/>
+      <c r="I239" s="18"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="19" t="s">
@@ -6878,13 +6883,13 @@
       <c r="H240" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I240" s="20" t="s">
+      <c r="I240" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="19"/>
-      <c r="B241" s="25"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="9" t="s">
         <v>165</v>
       </c>
@@ -6895,11 +6900,11 @@
       <c r="F241" s="19"/>
       <c r="G241" s="19"/>
       <c r="H241" s="19"/>
-      <c r="I241" s="20"/>
+      <c r="I241" s="18"/>
     </row>
     <row r="242" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="19"/>
-      <c r="B242" s="25"/>
+      <c r="B242" s="27"/>
       <c r="C242" s="9" t="s">
         <v>167</v>
       </c>
@@ -6910,11 +6915,11 @@
       <c r="F242" s="19"/>
       <c r="G242" s="19"/>
       <c r="H242" s="19"/>
-      <c r="I242" s="20"/>
+      <c r="I242" s="18"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="19"/>
-      <c r="B243" s="25"/>
+      <c r="B243" s="27"/>
       <c r="C243" s="9" t="s">
         <v>169</v>
       </c>
@@ -6925,11 +6930,11 @@
       <c r="F243" s="19"/>
       <c r="G243" s="19"/>
       <c r="H243" s="19"/>
-      <c r="I243" s="20"/>
+      <c r="I243" s="18"/>
     </row>
     <row r="244" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="19"/>
-      <c r="B244" s="25"/>
+      <c r="B244" s="27"/>
       <c r="C244" s="9" t="s">
         <v>212</v>
       </c>
@@ -6940,11 +6945,11 @@
       <c r="F244" s="19"/>
       <c r="G244" s="19"/>
       <c r="H244" s="19"/>
-      <c r="I244" s="20"/>
+      <c r="I244" s="18"/>
     </row>
     <row r="245" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="19"/>
-      <c r="B245" s="25"/>
+      <c r="B245" s="27"/>
       <c r="C245" s="9" t="s">
         <v>284</v>
       </c>
@@ -6955,11 +6960,11 @@
       <c r="F245" s="19"/>
       <c r="G245" s="19"/>
       <c r="H245" s="19"/>
-      <c r="I245" s="20"/>
+      <c r="I245" s="18"/>
     </row>
     <row r="246" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A246" s="19"/>
-      <c r="B246" s="25"/>
+      <c r="B246" s="27"/>
       <c r="C246" s="9" t="s">
         <v>208</v>
       </c>
@@ -6970,11 +6975,11 @@
       <c r="F246" s="19"/>
       <c r="G246" s="19"/>
       <c r="H246" s="19"/>
-      <c r="I246" s="20"/>
+      <c r="I246" s="18"/>
     </row>
     <row r="247" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A247" s="19"/>
-      <c r="B247" s="25"/>
+      <c r="B247" s="27"/>
       <c r="C247" s="9" t="s">
         <v>279</v>
       </c>
@@ -6985,7 +6990,7 @@
       <c r="F247" s="19"/>
       <c r="G247" s="19"/>
       <c r="H247" s="19"/>
-      <c r="I247" s="20"/>
+      <c r="I247" s="18"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="19" t="s">
@@ -7010,13 +7015,13 @@
       <c r="H248" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I248" s="20" t="s">
+      <c r="I248" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="19"/>
-      <c r="B249" s="25"/>
+      <c r="B249" s="27"/>
       <c r="C249" s="9" t="s">
         <v>165</v>
       </c>
@@ -7027,11 +7032,11 @@
       <c r="F249" s="19"/>
       <c r="G249" s="19"/>
       <c r="H249" s="19"/>
-      <c r="I249" s="20"/>
+      <c r="I249" s="18"/>
     </row>
     <row r="250" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" s="19"/>
-      <c r="B250" s="25"/>
+      <c r="B250" s="27"/>
       <c r="C250" s="9" t="s">
         <v>167</v>
       </c>
@@ -7042,11 +7047,11 @@
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
       <c r="H250" s="19"/>
-      <c r="I250" s="20"/>
+      <c r="I250" s="18"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="19"/>
-      <c r="B251" s="25"/>
+      <c r="B251" s="27"/>
       <c r="C251" s="9" t="s">
         <v>169</v>
       </c>
@@ -7057,11 +7062,11 @@
       <c r="F251" s="19"/>
       <c r="G251" s="19"/>
       <c r="H251" s="19"/>
-      <c r="I251" s="20"/>
+      <c r="I251" s="18"/>
     </row>
     <row r="252" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="19"/>
-      <c r="B252" s="25"/>
+      <c r="B252" s="27"/>
       <c r="C252" s="9" t="s">
         <v>212</v>
       </c>
@@ -7072,11 +7077,11 @@
       <c r="F252" s="19"/>
       <c r="G252" s="19"/>
       <c r="H252" s="19"/>
-      <c r="I252" s="20"/>
+      <c r="I252" s="18"/>
     </row>
     <row r="253" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="19"/>
-      <c r="B253" s="25"/>
+      <c r="B253" s="27"/>
       <c r="C253" s="9" t="s">
         <v>287</v>
       </c>
@@ -7087,11 +7092,11 @@
       <c r="F253" s="19"/>
       <c r="G253" s="19"/>
       <c r="H253" s="19"/>
-      <c r="I253" s="20"/>
+      <c r="I253" s="18"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="19"/>
-      <c r="B254" s="25"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="9" t="s">
         <v>208</v>
       </c>
@@ -7102,11 +7107,11 @@
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
       <c r="H254" s="19"/>
-      <c r="I254" s="20"/>
+      <c r="I254" s="18"/>
     </row>
     <row r="255" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="19"/>
-      <c r="B255" s="25"/>
+      <c r="B255" s="27"/>
       <c r="C255" s="9" t="s">
         <v>279</v>
       </c>
@@ -7117,7 +7122,7 @@
       <c r="F255" s="19"/>
       <c r="G255" s="19"/>
       <c r="H255" s="19"/>
-      <c r="I255" s="20"/>
+      <c r="I255" s="18"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="19" t="s">
@@ -7142,13 +7147,13 @@
       <c r="H256" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I256" s="20" t="s">
+      <c r="I256" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="19"/>
-      <c r="B257" s="25"/>
+      <c r="B257" s="27"/>
       <c r="C257" s="9" t="s">
         <v>165</v>
       </c>
@@ -7159,11 +7164,11 @@
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
       <c r="H257" s="19"/>
-      <c r="I257" s="20"/>
+      <c r="I257" s="18"/>
     </row>
     <row r="258" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="19"/>
-      <c r="B258" s="25"/>
+      <c r="B258" s="27"/>
       <c r="C258" s="9" t="s">
         <v>167</v>
       </c>
@@ -7174,11 +7179,11 @@
       <c r="F258" s="19"/>
       <c r="G258" s="19"/>
       <c r="H258" s="19"/>
-      <c r="I258" s="20"/>
+      <c r="I258" s="18"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="19"/>
-      <c r="B259" s="25"/>
+      <c r="B259" s="27"/>
       <c r="C259" s="9" t="s">
         <v>169</v>
       </c>
@@ -7189,11 +7194,11 @@
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
       <c r="H259" s="19"/>
-      <c r="I259" s="20"/>
+      <c r="I259" s="18"/>
     </row>
     <row r="260" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A260" s="19"/>
-      <c r="B260" s="25"/>
+      <c r="B260" s="27"/>
       <c r="C260" s="9" t="s">
         <v>212</v>
       </c>
@@ -7204,11 +7209,11 @@
       <c r="F260" s="19"/>
       <c r="G260" s="19"/>
       <c r="H260" s="19"/>
-      <c r="I260" s="20"/>
+      <c r="I260" s="18"/>
     </row>
     <row r="261" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="19"/>
-      <c r="B261" s="25"/>
+      <c r="B261" s="27"/>
       <c r="C261" s="9" t="s">
         <v>291</v>
       </c>
@@ -7219,11 +7224,11 @@
       <c r="F261" s="19"/>
       <c r="G261" s="19"/>
       <c r="H261" s="19"/>
-      <c r="I261" s="20"/>
+      <c r="I261" s="18"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="19"/>
-      <c r="B262" s="25"/>
+      <c r="B262" s="27"/>
       <c r="C262" s="9" t="s">
         <v>208</v>
       </c>
@@ -7234,11 +7239,11 @@
       <c r="F262" s="19"/>
       <c r="G262" s="19"/>
       <c r="H262" s="19"/>
-      <c r="I262" s="20"/>
+      <c r="I262" s="18"/>
     </row>
     <row r="263" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="19"/>
-      <c r="B263" s="25"/>
+      <c r="B263" s="27"/>
       <c r="C263" s="9" t="s">
         <v>279</v>
       </c>
@@ -7249,7 +7254,7 @@
       <c r="F263" s="19"/>
       <c r="G263" s="19"/>
       <c r="H263" s="19"/>
-      <c r="I263" s="20"/>
+      <c r="I263" s="18"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="19" t="s">
@@ -7272,9 +7277,11 @@
       </c>
       <c r="G264" s="19"/>
       <c r="H264" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I264" s="20"/>
+        <v>421</v>
+      </c>
+      <c r="I264" s="18" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="19"/>
@@ -7289,7 +7296,7 @@
       <c r="F265" s="19"/>
       <c r="G265" s="19"/>
       <c r="H265" s="19"/>
-      <c r="I265" s="20"/>
+      <c r="I265" s="18"/>
     </row>
     <row r="266" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="19"/>
@@ -7304,7 +7311,7 @@
       <c r="F266" s="19"/>
       <c r="G266" s="19"/>
       <c r="H266" s="19"/>
-      <c r="I266" s="20"/>
+      <c r="I266" s="18"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="19"/>
@@ -7319,7 +7326,7 @@
       <c r="F267" s="19"/>
       <c r="G267" s="19"/>
       <c r="H267" s="19"/>
-      <c r="I267" s="20"/>
+      <c r="I267" s="18"/>
     </row>
     <row r="268" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="19"/>
@@ -7334,7 +7341,7 @@
       <c r="F268" s="19"/>
       <c r="G268" s="19"/>
       <c r="H268" s="19"/>
-      <c r="I268" s="20"/>
+      <c r="I268" s="18"/>
     </row>
     <row r="269" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="19"/>
@@ -7349,7 +7356,7 @@
       <c r="F269" s="19"/>
       <c r="G269" s="19"/>
       <c r="H269" s="19"/>
-      <c r="I269" s="20"/>
+      <c r="I269" s="18"/>
     </row>
     <row r="270" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="19" t="s">
@@ -7371,8 +7378,10 @@
         <v>216</v>
       </c>
       <c r="G270" s="19"/>
-      <c r="H270" s="19"/>
-      <c r="I270" s="20" t="s">
+      <c r="H270" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="I270" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7389,7 +7398,7 @@
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
       <c r="H271" s="19"/>
-      <c r="I271" s="20"/>
+      <c r="I271" s="18"/>
     </row>
     <row r="272" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="19"/>
@@ -7404,7 +7413,7 @@
       <c r="F272" s="19"/>
       <c r="G272" s="19"/>
       <c r="H272" s="19"/>
-      <c r="I272" s="20"/>
+      <c r="I272" s="18"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="19"/>
@@ -7419,7 +7428,7 @@
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
       <c r="H273" s="19"/>
-      <c r="I273" s="20"/>
+      <c r="I273" s="18"/>
     </row>
     <row r="274" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="19"/>
@@ -7434,7 +7443,7 @@
       <c r="F274" s="19"/>
       <c r="G274" s="19"/>
       <c r="H274" s="19"/>
-      <c r="I274" s="20"/>
+      <c r="I274" s="18"/>
     </row>
     <row r="275" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="19"/>
@@ -7449,7 +7458,7 @@
       <c r="F275" s="19"/>
       <c r="G275" s="19"/>
       <c r="H275" s="19"/>
-      <c r="I275" s="20"/>
+      <c r="I275" s="18"/>
     </row>
     <row r="276" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="19"/>
@@ -7464,7 +7473,7 @@
       <c r="F276" s="19"/>
       <c r="G276" s="19"/>
       <c r="H276" s="19"/>
-      <c r="I276" s="20"/>
+      <c r="I276" s="18"/>
     </row>
     <row r="277" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="19"/>
@@ -7479,7 +7488,7 @@
       <c r="F277" s="19"/>
       <c r="G277" s="19"/>
       <c r="H277" s="19"/>
-      <c r="I277" s="20"/>
+      <c r="I277" s="18"/>
     </row>
     <row r="278" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="19" t="s">
@@ -7504,7 +7513,7 @@
       <c r="H278" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I278" s="20" t="s">
+      <c r="I278" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7521,7 +7530,7 @@
       <c r="F279" s="19"/>
       <c r="G279" s="19"/>
       <c r="H279" s="19"/>
-      <c r="I279" s="20"/>
+      <c r="I279" s="18"/>
     </row>
     <row r="280" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="19"/>
@@ -7536,7 +7545,7 @@
       <c r="F280" s="19"/>
       <c r="G280" s="19"/>
       <c r="H280" s="19"/>
-      <c r="I280" s="20"/>
+      <c r="I280" s="18"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="19"/>
@@ -7551,7 +7560,7 @@
       <c r="F281" s="19"/>
       <c r="G281" s="19"/>
       <c r="H281" s="19"/>
-      <c r="I281" s="20"/>
+      <c r="I281" s="18"/>
     </row>
     <row r="282" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="19"/>
@@ -7566,7 +7575,7 @@
       <c r="F282" s="19"/>
       <c r="G282" s="19"/>
       <c r="H282" s="19"/>
-      <c r="I282" s="20"/>
+      <c r="I282" s="18"/>
     </row>
     <row r="283" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="19"/>
@@ -7581,7 +7590,7 @@
       <c r="F283" s="19"/>
       <c r="G283" s="19"/>
       <c r="H283" s="19"/>
-      <c r="I283" s="20"/>
+      <c r="I283" s="18"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="19"/>
@@ -7596,7 +7605,7 @@
       <c r="F284" s="19"/>
       <c r="G284" s="19"/>
       <c r="H284" s="19"/>
-      <c r="I284" s="20"/>
+      <c r="I284" s="18"/>
     </row>
     <row r="285" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="19"/>
@@ -7611,7 +7620,7 @@
       <c r="F285" s="19"/>
       <c r="G285" s="19"/>
       <c r="H285" s="19"/>
-      <c r="I285" s="20"/>
+      <c r="I285" s="18"/>
     </row>
     <row r="286" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="19" t="s">
@@ -7636,7 +7645,7 @@
       <c r="H286" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I286" s="20" t="s">
+      <c r="I286" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7653,7 +7662,7 @@
       <c r="F287" s="19"/>
       <c r="G287" s="19"/>
       <c r="H287" s="19"/>
-      <c r="I287" s="20"/>
+      <c r="I287" s="18"/>
     </row>
     <row r="288" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="19"/>
@@ -7668,7 +7677,7 @@
       <c r="F288" s="19"/>
       <c r="G288" s="19"/>
       <c r="H288" s="19"/>
-      <c r="I288" s="20"/>
+      <c r="I288" s="18"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="19"/>
@@ -7683,7 +7692,7 @@
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
       <c r="H289" s="19"/>
-      <c r="I289" s="20"/>
+      <c r="I289" s="18"/>
     </row>
     <row r="290" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="19"/>
@@ -7698,7 +7707,7 @@
       <c r="F290" s="19"/>
       <c r="G290" s="19"/>
       <c r="H290" s="19"/>
-      <c r="I290" s="20"/>
+      <c r="I290" s="18"/>
     </row>
     <row r="291" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A291" s="19"/>
@@ -7713,7 +7722,7 @@
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
       <c r="H291" s="19"/>
-      <c r="I291" s="20"/>
+      <c r="I291" s="18"/>
     </row>
     <row r="292" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="19"/>
@@ -7728,7 +7737,7 @@
       <c r="F292" s="19"/>
       <c r="G292" s="19"/>
       <c r="H292" s="19"/>
-      <c r="I292" s="20"/>
+      <c r="I292" s="18"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="19"/>
@@ -7743,7 +7752,7 @@
       <c r="F293" s="19"/>
       <c r="G293" s="19"/>
       <c r="H293" s="19"/>
-      <c r="I293" s="20"/>
+      <c r="I293" s="18"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="19" t="s">
@@ -7768,7 +7777,7 @@
       <c r="H294" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I294" s="20" t="s">
+      <c r="I294" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7785,7 +7794,7 @@
       <c r="F295" s="19"/>
       <c r="G295" s="19"/>
       <c r="H295" s="19"/>
-      <c r="I295" s="20"/>
+      <c r="I295" s="18"/>
     </row>
     <row r="296" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="19"/>
@@ -7800,7 +7809,7 @@
       <c r="F296" s="19"/>
       <c r="G296" s="19"/>
       <c r="H296" s="19"/>
-      <c r="I296" s="20"/>
+      <c r="I296" s="18"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="19"/>
@@ -7815,7 +7824,7 @@
       <c r="F297" s="19"/>
       <c r="G297" s="19"/>
       <c r="H297" s="19"/>
-      <c r="I297" s="20"/>
+      <c r="I297" s="18"/>
     </row>
     <row r="298" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A298" s="19"/>
@@ -7830,7 +7839,7 @@
       <c r="F298" s="19"/>
       <c r="G298" s="19"/>
       <c r="H298" s="19"/>
-      <c r="I298" s="20"/>
+      <c r="I298" s="18"/>
     </row>
     <row r="299" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A299" s="19"/>
@@ -7845,7 +7854,7 @@
       <c r="F299" s="19"/>
       <c r="G299" s="19"/>
       <c r="H299" s="19"/>
-      <c r="I299" s="20"/>
+      <c r="I299" s="18"/>
     </row>
     <row r="300" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="19"/>
@@ -7860,7 +7869,7 @@
       <c r="F300" s="19"/>
       <c r="G300" s="19"/>
       <c r="H300" s="19"/>
-      <c r="I300" s="20"/>
+      <c r="I300" s="18"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="19"/>
@@ -7875,7 +7884,7 @@
       <c r="F301" s="19"/>
       <c r="G301" s="19"/>
       <c r="H301" s="19"/>
-      <c r="I301" s="20"/>
+      <c r="I301" s="18"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="19" t="s">
@@ -7900,7 +7909,7 @@
       <c r="H302" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I302" s="20" t="s">
+      <c r="I302" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7917,7 +7926,7 @@
       <c r="F303" s="19"/>
       <c r="G303" s="19"/>
       <c r="H303" s="19"/>
-      <c r="I303" s="20"/>
+      <c r="I303" s="18"/>
     </row>
     <row r="304" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A304" s="19"/>
@@ -7932,7 +7941,7 @@
       <c r="F304" s="19"/>
       <c r="G304" s="19"/>
       <c r="H304" s="19"/>
-      <c r="I304" s="20"/>
+      <c r="I304" s="18"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="19"/>
@@ -7947,7 +7956,7 @@
       <c r="F305" s="19"/>
       <c r="G305" s="19"/>
       <c r="H305" s="19"/>
-      <c r="I305" s="20"/>
+      <c r="I305" s="18"/>
     </row>
     <row r="306" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A306" s="19"/>
@@ -7962,7 +7971,7 @@
       <c r="F306" s="19"/>
       <c r="G306" s="19"/>
       <c r="H306" s="19"/>
-      <c r="I306" s="20"/>
+      <c r="I306" s="18"/>
     </row>
     <row r="307" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A307" s="19"/>
@@ -7977,7 +7986,7 @@
       <c r="F307" s="19"/>
       <c r="G307" s="19"/>
       <c r="H307" s="19"/>
-      <c r="I307" s="20"/>
+      <c r="I307" s="18"/>
     </row>
     <row r="308" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="19"/>
@@ -7992,7 +8001,7 @@
       <c r="F308" s="19"/>
       <c r="G308" s="19"/>
       <c r="H308" s="19"/>
-      <c r="I308" s="20"/>
+      <c r="I308" s="18"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="19"/>
@@ -8007,7 +8016,7 @@
       <c r="F309" s="19"/>
       <c r="G309" s="19"/>
       <c r="H309" s="19"/>
-      <c r="I309" s="20"/>
+      <c r="I309" s="18"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="19" t="s">
@@ -8032,7 +8041,7 @@
       <c r="H310" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I310" s="20" t="s">
+      <c r="I310" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8049,7 +8058,7 @@
       <c r="F311" s="19"/>
       <c r="G311" s="19"/>
       <c r="H311" s="19"/>
-      <c r="I311" s="20"/>
+      <c r="I311" s="18"/>
     </row>
     <row r="312" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A312" s="19"/>
@@ -8064,7 +8073,7 @@
       <c r="F312" s="19"/>
       <c r="G312" s="19"/>
       <c r="H312" s="19"/>
-      <c r="I312" s="20"/>
+      <c r="I312" s="18"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="19"/>
@@ -8079,7 +8088,7 @@
       <c r="F313" s="19"/>
       <c r="G313" s="19"/>
       <c r="H313" s="19"/>
-      <c r="I313" s="20"/>
+      <c r="I313" s="18"/>
     </row>
     <row r="314" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A314" s="19"/>
@@ -8094,7 +8103,7 @@
       <c r="F314" s="19"/>
       <c r="G314" s="19"/>
       <c r="H314" s="19"/>
-      <c r="I314" s="20"/>
+      <c r="I314" s="18"/>
     </row>
     <row r="315" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A315" s="19"/>
@@ -8109,7 +8118,7 @@
       <c r="F315" s="19"/>
       <c r="G315" s="19"/>
       <c r="H315" s="19"/>
-      <c r="I315" s="20"/>
+      <c r="I315" s="18"/>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="19"/>
@@ -8124,7 +8133,7 @@
       <c r="F316" s="19"/>
       <c r="G316" s="19"/>
       <c r="H316" s="19"/>
-      <c r="I316" s="20"/>
+      <c r="I316" s="18"/>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="19"/>
@@ -8139,7 +8148,7 @@
       <c r="F317" s="19"/>
       <c r="G317" s="19"/>
       <c r="H317" s="19"/>
-      <c r="I317" s="20"/>
+      <c r="I317" s="18"/>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="19" t="s">
@@ -8164,7 +8173,7 @@
       <c r="H318" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I318" s="20" t="s">
+      <c r="I318" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8181,7 +8190,7 @@
       <c r="F319" s="19"/>
       <c r="G319" s="19"/>
       <c r="H319" s="19"/>
-      <c r="I319" s="20"/>
+      <c r="I319" s="18"/>
     </row>
     <row r="320" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A320" s="19"/>
@@ -8196,7 +8205,7 @@
       <c r="F320" s="19"/>
       <c r="G320" s="19"/>
       <c r="H320" s="19"/>
-      <c r="I320" s="20"/>
+      <c r="I320" s="18"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="19"/>
@@ -8211,7 +8220,7 @@
       <c r="F321" s="19"/>
       <c r="G321" s="19"/>
       <c r="H321" s="19"/>
-      <c r="I321" s="20"/>
+      <c r="I321" s="18"/>
     </row>
     <row r="322" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A322" s="19"/>
@@ -8226,7 +8235,7 @@
       <c r="F322" s="19"/>
       <c r="G322" s="19"/>
       <c r="H322" s="19"/>
-      <c r="I322" s="20"/>
+      <c r="I322" s="18"/>
     </row>
     <row r="323" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A323" s="19"/>
@@ -8241,7 +8250,7 @@
       <c r="F323" s="19"/>
       <c r="G323" s="19"/>
       <c r="H323" s="19"/>
-      <c r="I323" s="20"/>
+      <c r="I323" s="18"/>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="19"/>
@@ -8256,7 +8265,7 @@
       <c r="F324" s="19"/>
       <c r="G324" s="19"/>
       <c r="H324" s="19"/>
-      <c r="I324" s="20"/>
+      <c r="I324" s="18"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="19"/>
@@ -8271,9 +8280,9 @@
       <c r="F325" s="19"/>
       <c r="G325" s="19"/>
       <c r="H325" s="19"/>
-      <c r="I325" s="20"/>
-    </row>
-    <row r="326" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I325" s="18"/>
+    </row>
+    <row r="326" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="19" t="s">
         <v>381</v>
       </c>
@@ -8296,7 +8305,7 @@
       <c r="H326" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I326" s="20" t="s">
+      <c r="I326" s="18" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8313,7 +8322,7 @@
       <c r="F327" s="19"/>
       <c r="G327" s="19"/>
       <c r="H327" s="19"/>
-      <c r="I327" s="20"/>
+      <c r="I327" s="18"/>
     </row>
     <row r="328" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A328" s="19"/>
@@ -8328,7 +8337,7 @@
       <c r="F328" s="19"/>
       <c r="G328" s="19"/>
       <c r="H328" s="19"/>
-      <c r="I328" s="20"/>
+      <c r="I328" s="18"/>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="19"/>
@@ -8343,7 +8352,7 @@
       <c r="F329" s="19"/>
       <c r="G329" s="19"/>
       <c r="H329" s="19"/>
-      <c r="I329" s="20"/>
+      <c r="I329" s="18"/>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="19"/>
@@ -8358,7 +8367,7 @@
       <c r="F330" s="19"/>
       <c r="G330" s="19"/>
       <c r="H330" s="19"/>
-      <c r="I330" s="20"/>
+      <c r="I330" s="18"/>
     </row>
     <row r="331" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A331" s="19"/>
@@ -8373,7 +8382,7 @@
       <c r="F331" s="19"/>
       <c r="G331" s="19"/>
       <c r="H331" s="19"/>
-      <c r="I331" s="20"/>
+      <c r="I331" s="18"/>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="19" t="s">
@@ -8396,9 +8405,11 @@
       </c>
       <c r="G332" s="19"/>
       <c r="H332" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I332" s="20"/>
+        <v>421</v>
+      </c>
+      <c r="I332" s="18" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="19"/>
@@ -8413,7 +8424,7 @@
       <c r="F333" s="19"/>
       <c r="G333" s="19"/>
       <c r="H333" s="19"/>
-      <c r="I333" s="20"/>
+      <c r="I333" s="18"/>
     </row>
     <row r="334" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A334" s="19"/>
@@ -8428,7 +8439,7 @@
       <c r="F334" s="19"/>
       <c r="G334" s="19"/>
       <c r="H334" s="19"/>
-      <c r="I334" s="20"/>
+      <c r="I334" s="18"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="19"/>
@@ -8443,7 +8454,7 @@
       <c r="F335" s="19"/>
       <c r="G335" s="19"/>
       <c r="H335" s="19"/>
-      <c r="I335" s="20"/>
+      <c r="I335" s="18"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="19"/>
@@ -8458,7 +8469,7 @@
       <c r="F336" s="19"/>
       <c r="G336" s="19"/>
       <c r="H336" s="19"/>
-      <c r="I336" s="20"/>
+      <c r="I336" s="18"/>
     </row>
     <row r="337" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="19"/>
@@ -8473,7 +8484,7 @@
       <c r="F337" s="19"/>
       <c r="G337" s="19"/>
       <c r="H337" s="19"/>
-      <c r="I337" s="20"/>
+      <c r="I337" s="18"/>
     </row>
     <row r="338" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="19"/>
@@ -8488,7 +8499,7 @@
       <c r="F338" s="19"/>
       <c r="G338" s="19"/>
       <c r="H338" s="19"/>
-      <c r="I338" s="20"/>
+      <c r="I338" s="18"/>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="19" t="s">
@@ -8513,7 +8524,7 @@
       <c r="H339" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I339" s="20" t="s">
+      <c r="I339" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8530,7 +8541,7 @@
       <c r="F340" s="19"/>
       <c r="G340" s="19"/>
       <c r="H340" s="19"/>
-      <c r="I340" s="20"/>
+      <c r="I340" s="18"/>
     </row>
     <row r="341" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="19"/>
@@ -8545,7 +8556,7 @@
       <c r="F341" s="19"/>
       <c r="G341" s="19"/>
       <c r="H341" s="19"/>
-      <c r="I341" s="20"/>
+      <c r="I341" s="18"/>
     </row>
     <row r="342" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="19"/>
@@ -8560,7 +8571,7 @@
       <c r="F342" s="19"/>
       <c r="G342" s="19"/>
       <c r="H342" s="19"/>
-      <c r="I342" s="20"/>
+      <c r="I342" s="18"/>
     </row>
     <row r="343" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="19"/>
@@ -8575,7 +8586,7 @@
       <c r="F343" s="19"/>
       <c r="G343" s="19"/>
       <c r="H343" s="19"/>
-      <c r="I343" s="20"/>
+      <c r="I343" s="18"/>
     </row>
     <row r="344" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="19"/>
@@ -8590,7 +8601,7 @@
       <c r="F344" s="19"/>
       <c r="G344" s="19"/>
       <c r="H344" s="19"/>
-      <c r="I344" s="20"/>
+      <c r="I344" s="18"/>
     </row>
     <row r="345" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="19"/>
@@ -8605,7 +8616,7 @@
       <c r="F345" s="19"/>
       <c r="G345" s="19"/>
       <c r="H345" s="19"/>
-      <c r="I345" s="20"/>
+      <c r="I345" s="18"/>
     </row>
     <row r="346" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="19"/>
@@ -8620,7 +8631,7 @@
       <c r="F346" s="19"/>
       <c r="G346" s="19"/>
       <c r="H346" s="19"/>
-      <c r="I346" s="20"/>
+      <c r="I346" s="18"/>
     </row>
     <row r="347" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="19"/>
@@ -8635,7 +8646,7 @@
       <c r="F347" s="19"/>
       <c r="G347" s="19"/>
       <c r="H347" s="19"/>
-      <c r="I347" s="20"/>
+      <c r="I347" s="18"/>
     </row>
     <row r="348" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="19"/>
@@ -8650,7 +8661,7 @@
       <c r="F348" s="19"/>
       <c r="G348" s="19"/>
       <c r="H348" s="19"/>
-      <c r="I348" s="20"/>
+      <c r="I348" s="18"/>
     </row>
     <row r="349" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="19"/>
@@ -8665,7 +8676,7 @@
       <c r="F349" s="19"/>
       <c r="G349" s="19"/>
       <c r="H349" s="19"/>
-      <c r="I349" s="20"/>
+      <c r="I349" s="18"/>
     </row>
     <row r="350" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="19"/>
@@ -8680,7 +8691,7 @@
       <c r="F350" s="19"/>
       <c r="G350" s="19"/>
       <c r="H350" s="19"/>
-      <c r="I350" s="20"/>
+      <c r="I350" s="18"/>
     </row>
     <row r="351" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="19"/>
@@ -8695,7 +8706,7 @@
       <c r="F351" s="19"/>
       <c r="G351" s="19"/>
       <c r="H351" s="19"/>
-      <c r="I351" s="20"/>
+      <c r="I351" s="18"/>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="19" t="s">
@@ -8720,7 +8731,7 @@
       <c r="H352" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I352" s="20" t="s">
+      <c r="I352" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8737,7 +8748,7 @@
       <c r="F353" s="19"/>
       <c r="G353" s="19"/>
       <c r="H353" s="19"/>
-      <c r="I353" s="20"/>
+      <c r="I353" s="18"/>
     </row>
     <row r="354" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="19"/>
@@ -8752,7 +8763,7 @@
       <c r="F354" s="19"/>
       <c r="G354" s="19"/>
       <c r="H354" s="19"/>
-      <c r="I354" s="20"/>
+      <c r="I354" s="18"/>
     </row>
     <row r="355" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="19"/>
@@ -8767,7 +8778,7 @@
       <c r="F355" s="19"/>
       <c r="G355" s="19"/>
       <c r="H355" s="19"/>
-      <c r="I355" s="20"/>
+      <c r="I355" s="18"/>
     </row>
     <row r="356" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="19"/>
@@ -8782,7 +8793,7 @@
       <c r="F356" s="19"/>
       <c r="G356" s="19"/>
       <c r="H356" s="19"/>
-      <c r="I356" s="20"/>
+      <c r="I356" s="18"/>
     </row>
     <row r="357" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="19"/>
@@ -8797,7 +8808,7 @@
       <c r="F357" s="19"/>
       <c r="G357" s="19"/>
       <c r="H357" s="19"/>
-      <c r="I357" s="20"/>
+      <c r="I357" s="18"/>
     </row>
     <row r="358" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="19"/>
@@ -8812,7 +8823,7 @@
       <c r="F358" s="19"/>
       <c r="G358" s="19"/>
       <c r="H358" s="19"/>
-      <c r="I358" s="20"/>
+      <c r="I358" s="18"/>
     </row>
     <row r="359" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="19"/>
@@ -8827,7 +8838,7 @@
       <c r="F359" s="19"/>
       <c r="G359" s="19"/>
       <c r="H359" s="19"/>
-      <c r="I359" s="20"/>
+      <c r="I359" s="18"/>
     </row>
     <row r="360" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="19"/>
@@ -8842,7 +8853,7 @@
       <c r="F360" s="19"/>
       <c r="G360" s="19"/>
       <c r="H360" s="19"/>
-      <c r="I360" s="20"/>
+      <c r="I360" s="18"/>
     </row>
     <row r="361" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="19"/>
@@ -8857,7 +8868,7 @@
       <c r="F361" s="19"/>
       <c r="G361" s="19"/>
       <c r="H361" s="19"/>
-      <c r="I361" s="20"/>
+      <c r="I361" s="18"/>
     </row>
     <row r="362" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="19"/>
@@ -8872,7 +8883,7 @@
       <c r="F362" s="19"/>
       <c r="G362" s="19"/>
       <c r="H362" s="19"/>
-      <c r="I362" s="20"/>
+      <c r="I362" s="18"/>
     </row>
     <row r="363" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="19"/>
@@ -8887,7 +8898,7 @@
       <c r="F363" s="19"/>
       <c r="G363" s="19"/>
       <c r="H363" s="19"/>
-      <c r="I363" s="20"/>
+      <c r="I363" s="18"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="19"/>
@@ -8902,7 +8913,7 @@
       <c r="F364" s="19"/>
       <c r="G364" s="19"/>
       <c r="H364" s="19"/>
-      <c r="I364" s="20"/>
+      <c r="I364" s="18"/>
     </row>
     <row r="365" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="19" t="s">
@@ -8927,7 +8938,7 @@
       <c r="H365" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I365" s="20" t="s">
+      <c r="I365" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8944,7 +8955,7 @@
       <c r="F366" s="19"/>
       <c r="G366" s="19"/>
       <c r="H366" s="19"/>
-      <c r="I366" s="20"/>
+      <c r="I366" s="18"/>
     </row>
     <row r="367" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A367" s="19"/>
@@ -8959,7 +8970,7 @@
       <c r="F367" s="19"/>
       <c r="G367" s="19"/>
       <c r="H367" s="19"/>
-      <c r="I367" s="20"/>
+      <c r="I367" s="18"/>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="19"/>
@@ -8974,7 +8985,7 @@
       <c r="F368" s="19"/>
       <c r="G368" s="19"/>
       <c r="H368" s="19"/>
-      <c r="I368" s="20"/>
+      <c r="I368" s="18"/>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="19"/>
@@ -8989,7 +9000,7 @@
       <c r="F369" s="19"/>
       <c r="G369" s="19"/>
       <c r="H369" s="19"/>
-      <c r="I369" s="20"/>
+      <c r="I369" s="18"/>
     </row>
     <row r="370" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A370" s="19"/>
@@ -9004,7 +9015,7 @@
       <c r="F370" s="19"/>
       <c r="G370" s="19"/>
       <c r="H370" s="19"/>
-      <c r="I370" s="20"/>
+      <c r="I370" s="18"/>
     </row>
     <row r="371" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A371" s="19"/>
@@ -9019,7 +9030,7 @@
       <c r="F371" s="19"/>
       <c r="G371" s="19"/>
       <c r="H371" s="19"/>
-      <c r="I371" s="20"/>
+      <c r="I371" s="18"/>
     </row>
     <row r="372" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="19"/>
@@ -9034,7 +9045,7 @@
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
       <c r="H372" s="19"/>
-      <c r="I372" s="20"/>
+      <c r="I372" s="18"/>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="19"/>
@@ -9049,7 +9060,7 @@
       <c r="F373" s="19"/>
       <c r="G373" s="19"/>
       <c r="H373" s="19"/>
-      <c r="I373" s="20"/>
+      <c r="I373" s="18"/>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="19" t="s">
@@ -9074,7 +9085,7 @@
       <c r="H374" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I374" s="20" t="s">
+      <c r="I374" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9091,7 +9102,7 @@
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
       <c r="H375" s="19"/>
-      <c r="I375" s="20"/>
+      <c r="I375" s="18"/>
     </row>
     <row r="376" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A376" s="19"/>
@@ -9106,7 +9117,7 @@
       <c r="F376" s="19"/>
       <c r="G376" s="19"/>
       <c r="H376" s="19"/>
-      <c r="I376" s="20"/>
+      <c r="I376" s="18"/>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="19"/>
@@ -9121,7 +9132,7 @@
       <c r="F377" s="19"/>
       <c r="G377" s="19"/>
       <c r="H377" s="19"/>
-      <c r="I377" s="20"/>
+      <c r="I377" s="18"/>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="19"/>
@@ -9136,7 +9147,7 @@
       <c r="F378" s="19"/>
       <c r="G378" s="19"/>
       <c r="H378" s="19"/>
-      <c r="I378" s="20"/>
+      <c r="I378" s="18"/>
     </row>
     <row r="379" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="19"/>
@@ -9151,7 +9162,7 @@
       <c r="F379" s="19"/>
       <c r="G379" s="19"/>
       <c r="H379" s="19"/>
-      <c r="I379" s="20"/>
+      <c r="I379" s="18"/>
     </row>
     <row r="380" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A380" s="19"/>
@@ -9166,7 +9177,7 @@
       <c r="F380" s="19"/>
       <c r="G380" s="19"/>
       <c r="H380" s="19"/>
-      <c r="I380" s="20"/>
+      <c r="I380" s="18"/>
     </row>
     <row r="381" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A381" s="19"/>
@@ -9181,7 +9192,7 @@
       <c r="F381" s="19"/>
       <c r="G381" s="19"/>
       <c r="H381" s="19"/>
-      <c r="I381" s="20"/>
+      <c r="I381" s="18"/>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="19"/>
@@ -9196,7 +9207,7 @@
       <c r="F382" s="19"/>
       <c r="G382" s="19"/>
       <c r="H382" s="19"/>
-      <c r="I382" s="20"/>
+      <c r="I382" s="18"/>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="19" t="s">
@@ -9221,7 +9232,7 @@
       <c r="H383" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I383" s="20" t="s">
+      <c r="I383" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9238,7 +9249,7 @@
       <c r="F384" s="19"/>
       <c r="G384" s="19"/>
       <c r="H384" s="19"/>
-      <c r="I384" s="20"/>
+      <c r="I384" s="18"/>
     </row>
     <row r="385" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="19"/>
@@ -9253,7 +9264,7 @@
       <c r="F385" s="19"/>
       <c r="G385" s="19"/>
       <c r="H385" s="19"/>
-      <c r="I385" s="20"/>
+      <c r="I385" s="18"/>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="19"/>
@@ -9268,7 +9279,7 @@
       <c r="F386" s="19"/>
       <c r="G386" s="19"/>
       <c r="H386" s="19"/>
-      <c r="I386" s="20"/>
+      <c r="I386" s="18"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="19"/>
@@ -9283,7 +9294,7 @@
       <c r="F387" s="19"/>
       <c r="G387" s="19"/>
       <c r="H387" s="19"/>
-      <c r="I387" s="20"/>
+      <c r="I387" s="18"/>
     </row>
     <row r="388" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="19"/>
@@ -9298,7 +9309,7 @@
       <c r="F388" s="19"/>
       <c r="G388" s="19"/>
       <c r="H388" s="19"/>
-      <c r="I388" s="20"/>
+      <c r="I388" s="18"/>
     </row>
     <row r="389" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A389" s="19"/>
@@ -9313,7 +9324,7 @@
       <c r="F389" s="19"/>
       <c r="G389" s="19"/>
       <c r="H389" s="19"/>
-      <c r="I389" s="20"/>
+      <c r="I389" s="18"/>
     </row>
     <row r="390" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="19"/>
@@ -9328,7 +9339,7 @@
       <c r="F390" s="19"/>
       <c r="G390" s="19"/>
       <c r="H390" s="19"/>
-      <c r="I390" s="20"/>
+      <c r="I390" s="18"/>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="19"/>
@@ -9343,7 +9354,7 @@
       <c r="F391" s="19"/>
       <c r="G391" s="19"/>
       <c r="H391" s="19"/>
-      <c r="I391" s="20"/>
+      <c r="I391" s="18"/>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="19" t="s">
@@ -9368,13 +9379,13 @@
       <c r="H392" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I392" s="20" t="s">
+      <c r="I392" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="19"/>
-      <c r="B393" s="23"/>
+      <c r="B393" s="26"/>
       <c r="C393" s="9" t="s">
         <v>165</v>
       </c>
@@ -9385,11 +9396,11 @@
       <c r="F393" s="19"/>
       <c r="G393" s="19"/>
       <c r="H393" s="19"/>
-      <c r="I393" s="20"/>
+      <c r="I393" s="18"/>
     </row>
     <row r="394" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A394" s="19"/>
-      <c r="B394" s="23"/>
+      <c r="B394" s="26"/>
       <c r="C394" s="9" t="s">
         <v>167</v>
       </c>
@@ -9400,11 +9411,11 @@
       <c r="F394" s="19"/>
       <c r="G394" s="19"/>
       <c r="H394" s="19"/>
-      <c r="I394" s="20"/>
+      <c r="I394" s="18"/>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="19"/>
-      <c r="B395" s="23"/>
+      <c r="B395" s="26"/>
       <c r="C395" s="9" t="s">
         <v>169</v>
       </c>
@@ -9415,11 +9426,11 @@
       <c r="F395" s="19"/>
       <c r="G395" s="19"/>
       <c r="H395" s="19"/>
-      <c r="I395" s="20"/>
+      <c r="I395" s="18"/>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="19"/>
-      <c r="B396" s="23"/>
+      <c r="B396" s="26"/>
       <c r="C396" s="9" t="s">
         <v>236</v>
       </c>
@@ -9430,11 +9441,11 @@
       <c r="F396" s="19"/>
       <c r="G396" s="19"/>
       <c r="H396" s="19"/>
-      <c r="I396" s="20"/>
+      <c r="I396" s="18"/>
     </row>
     <row r="397" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A397" s="19"/>
-      <c r="B397" s="23"/>
+      <c r="B397" s="26"/>
       <c r="C397" s="9" t="s">
         <v>237</v>
       </c>
@@ -9445,11 +9456,11 @@
       <c r="F397" s="19"/>
       <c r="G397" s="19"/>
       <c r="H397" s="19"/>
-      <c r="I397" s="20"/>
+      <c r="I397" s="18"/>
     </row>
     <row r="398" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A398" s="19"/>
-      <c r="B398" s="23"/>
+      <c r="B398" s="26"/>
       <c r="C398" s="9" t="s">
         <v>356</v>
       </c>
@@ -9460,11 +9471,11 @@
       <c r="F398" s="19"/>
       <c r="G398" s="19"/>
       <c r="H398" s="19"/>
-      <c r="I398" s="20"/>
+      <c r="I398" s="18"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="19"/>
-      <c r="B399" s="23"/>
+      <c r="B399" s="26"/>
       <c r="C399" s="9" t="s">
         <v>239</v>
       </c>
@@ -9475,11 +9486,11 @@
       <c r="F399" s="19"/>
       <c r="G399" s="19"/>
       <c r="H399" s="19"/>
-      <c r="I399" s="20"/>
+      <c r="I399" s="18"/>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="19"/>
-      <c r="B400" s="23"/>
+      <c r="B400" s="26"/>
       <c r="C400" s="9" t="s">
         <v>348</v>
       </c>
@@ -9490,7 +9501,7 @@
       <c r="F400" s="19"/>
       <c r="G400" s="19"/>
       <c r="H400" s="19"/>
-      <c r="I400" s="20"/>
+      <c r="I400" s="18"/>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="19" t="s">
@@ -9515,13 +9526,13 @@
       <c r="H401" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I401" s="20" t="s">
+      <c r="I401" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="19"/>
-      <c r="B402" s="23"/>
+      <c r="B402" s="26"/>
       <c r="C402" s="9" t="s">
         <v>165</v>
       </c>
@@ -9532,11 +9543,11 @@
       <c r="F402" s="19"/>
       <c r="G402" s="19"/>
       <c r="H402" s="19"/>
-      <c r="I402" s="20"/>
+      <c r="I402" s="18"/>
     </row>
     <row r="403" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A403" s="19"/>
-      <c r="B403" s="23"/>
+      <c r="B403" s="26"/>
       <c r="C403" s="9" t="s">
         <v>167</v>
       </c>
@@ -9547,11 +9558,11 @@
       <c r="F403" s="19"/>
       <c r="G403" s="19"/>
       <c r="H403" s="19"/>
-      <c r="I403" s="20"/>
+      <c r="I403" s="18"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="19"/>
-      <c r="B404" s="23"/>
+      <c r="B404" s="26"/>
       <c r="C404" s="9" t="s">
         <v>169</v>
       </c>
@@ -9562,11 +9573,11 @@
       <c r="F404" s="19"/>
       <c r="G404" s="19"/>
       <c r="H404" s="19"/>
-      <c r="I404" s="20"/>
+      <c r="I404" s="18"/>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="19"/>
-      <c r="B405" s="23"/>
+      <c r="B405" s="26"/>
       <c r="C405" s="9" t="s">
         <v>236</v>
       </c>
@@ -9577,11 +9588,11 @@
       <c r="F405" s="19"/>
       <c r="G405" s="19"/>
       <c r="H405" s="19"/>
-      <c r="I405" s="20"/>
+      <c r="I405" s="18"/>
     </row>
     <row r="406" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A406" s="19"/>
-      <c r="B406" s="23"/>
+      <c r="B406" s="26"/>
       <c r="C406" s="9" t="s">
         <v>237</v>
       </c>
@@ -9592,11 +9603,11 @@
       <c r="F406" s="19"/>
       <c r="G406" s="19"/>
       <c r="H406" s="19"/>
-      <c r="I406" s="20"/>
+      <c r="I406" s="18"/>
     </row>
     <row r="407" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A407" s="19"/>
-      <c r="B407" s="23"/>
+      <c r="B407" s="26"/>
       <c r="C407" s="9" t="s">
         <v>360</v>
       </c>
@@ -9607,11 +9618,11 @@
       <c r="F407" s="19"/>
       <c r="G407" s="19"/>
       <c r="H407" s="19"/>
-      <c r="I407" s="20"/>
+      <c r="I407" s="18"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="19"/>
-      <c r="B408" s="23"/>
+      <c r="B408" s="26"/>
       <c r="C408" s="9" t="s">
         <v>239</v>
       </c>
@@ -9622,11 +9633,11 @@
       <c r="F408" s="19"/>
       <c r="G408" s="19"/>
       <c r="H408" s="19"/>
-      <c r="I408" s="20"/>
+      <c r="I408" s="18"/>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="19"/>
-      <c r="B409" s="23"/>
+      <c r="B409" s="26"/>
       <c r="C409" s="9" t="s">
         <v>348</v>
       </c>
@@ -9637,7 +9648,7 @@
       <c r="F409" s="19"/>
       <c r="G409" s="19"/>
       <c r="H409" s="19"/>
-      <c r="I409" s="20"/>
+      <c r="I409" s="18"/>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="19" t="s">
@@ -9660,9 +9671,11 @@
       </c>
       <c r="G410" s="19"/>
       <c r="H410" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I410" s="20"/>
+        <v>421</v>
+      </c>
+      <c r="I410" s="18" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="19"/>
@@ -9677,7 +9690,7 @@
       <c r="F411" s="19"/>
       <c r="G411" s="19"/>
       <c r="H411" s="19"/>
-      <c r="I411" s="20"/>
+      <c r="I411" s="18"/>
     </row>
     <row r="412" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A412" s="19"/>
@@ -9692,7 +9705,7 @@
       <c r="F412" s="19"/>
       <c r="G412" s="19"/>
       <c r="H412" s="19"/>
-      <c r="I412" s="20"/>
+      <c r="I412" s="18"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="19"/>
@@ -9707,7 +9720,7 @@
       <c r="F413" s="19"/>
       <c r="G413" s="19"/>
       <c r="H413" s="19"/>
-      <c r="I413" s="20"/>
+      <c r="I413" s="18"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="19"/>
@@ -9722,7 +9735,7 @@
       <c r="F414" s="19"/>
       <c r="G414" s="19"/>
       <c r="H414" s="19"/>
-      <c r="I414" s="20"/>
+      <c r="I414" s="18"/>
     </row>
     <row r="415" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" s="19"/>
@@ -9737,7 +9750,7 @@
       <c r="F415" s="19"/>
       <c r="G415" s="19"/>
       <c r="H415" s="19"/>
-      <c r="I415" s="20"/>
+      <c r="I415" s="18"/>
     </row>
     <row r="416" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" s="19"/>
@@ -9752,7 +9765,7 @@
       <c r="F416" s="19"/>
       <c r="G416" s="19"/>
       <c r="H416" s="19"/>
-      <c r="I416" s="20"/>
+      <c r="I416" s="18"/>
     </row>
     <row r="417" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="19" t="s">
@@ -9777,7 +9790,7 @@
       <c r="H417" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I417" s="20" t="s">
+      <c r="I417" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9794,7 +9807,7 @@
       <c r="F418" s="19"/>
       <c r="G418" s="19"/>
       <c r="H418" s="19"/>
-      <c r="I418" s="20"/>
+      <c r="I418" s="18"/>
     </row>
     <row r="419" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A419" s="19"/>
@@ -9809,7 +9822,7 @@
       <c r="F419" s="19"/>
       <c r="G419" s="19"/>
       <c r="H419" s="19"/>
-      <c r="I419" s="20"/>
+      <c r="I419" s="18"/>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="19"/>
@@ -9824,7 +9837,7 @@
       <c r="F420" s="19"/>
       <c r="G420" s="19"/>
       <c r="H420" s="19"/>
-      <c r="I420" s="20"/>
+      <c r="I420" s="18"/>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="19"/>
@@ -9839,7 +9852,7 @@
       <c r="F421" s="19"/>
       <c r="G421" s="19"/>
       <c r="H421" s="19"/>
-      <c r="I421" s="20"/>
+      <c r="I421" s="18"/>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="19"/>
@@ -9854,7 +9867,7 @@
       <c r="F422" s="19"/>
       <c r="G422" s="19"/>
       <c r="H422" s="19"/>
-      <c r="I422" s="20"/>
+      <c r="I422" s="18"/>
     </row>
     <row r="423" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A423" s="19"/>
@@ -9869,7 +9882,7 @@
       <c r="F423" s="19"/>
       <c r="G423" s="19"/>
       <c r="H423" s="19"/>
-      <c r="I423" s="20"/>
+      <c r="I423" s="18"/>
     </row>
     <row r="424" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A424" s="19"/>
@@ -9884,7 +9897,7 @@
       <c r="F424" s="19"/>
       <c r="G424" s="19"/>
       <c r="H424" s="19"/>
-      <c r="I424" s="20"/>
+      <c r="I424" s="18"/>
     </row>
     <row r="425" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A425" s="19"/>
@@ -9899,7 +9912,7 @@
       <c r="F425" s="19"/>
       <c r="G425" s="19"/>
       <c r="H425" s="19"/>
-      <c r="I425" s="20"/>
+      <c r="I425" s="18"/>
     </row>
     <row r="426" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="19" t="s">
@@ -9924,7 +9937,7 @@
       <c r="H426" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I426" s="20" t="s">
+      <c r="I426" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9941,7 +9954,7 @@
       <c r="F427" s="19"/>
       <c r="G427" s="19"/>
       <c r="H427" s="19"/>
-      <c r="I427" s="20"/>
+      <c r="I427" s="18"/>
     </row>
     <row r="428" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A428" s="19"/>
@@ -9956,7 +9969,7 @@
       <c r="F428" s="19"/>
       <c r="G428" s="19"/>
       <c r="H428" s="19"/>
-      <c r="I428" s="20"/>
+      <c r="I428" s="18"/>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="19"/>
@@ -9971,7 +9984,7 @@
       <c r="F429" s="19"/>
       <c r="G429" s="19"/>
       <c r="H429" s="19"/>
-      <c r="I429" s="20"/>
+      <c r="I429" s="18"/>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" s="19"/>
@@ -9986,7 +9999,7 @@
       <c r="F430" s="19"/>
       <c r="G430" s="19"/>
       <c r="H430" s="19"/>
-      <c r="I430" s="20"/>
+      <c r="I430" s="18"/>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" s="19"/>
@@ -10001,7 +10014,7 @@
       <c r="F431" s="19"/>
       <c r="G431" s="19"/>
       <c r="H431" s="19"/>
-      <c r="I431" s="20"/>
+      <c r="I431" s="18"/>
     </row>
     <row r="432" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A432" s="19"/>
@@ -10016,7 +10029,7 @@
       <c r="F432" s="19"/>
       <c r="G432" s="19"/>
       <c r="H432" s="19"/>
-      <c r="I432" s="20"/>
+      <c r="I432" s="18"/>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433" s="19"/>
@@ -10031,7 +10044,7 @@
       <c r="F433" s="19"/>
       <c r="G433" s="19"/>
       <c r="H433" s="19"/>
-      <c r="I433" s="20"/>
+      <c r="I433" s="18"/>
     </row>
     <row r="434" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A434" s="19"/>
@@ -10046,7 +10059,7 @@
       <c r="F434" s="19"/>
       <c r="G434" s="19"/>
       <c r="H434" s="19"/>
-      <c r="I434" s="20"/>
+      <c r="I434" s="18"/>
     </row>
     <row r="435" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="19" t="s">
@@ -10071,7 +10084,7 @@
       <c r="H435" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I435" s="20" t="s">
+      <c r="I435" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10088,7 +10101,7 @@
       <c r="F436" s="19"/>
       <c r="G436" s="19"/>
       <c r="H436" s="19"/>
-      <c r="I436" s="20"/>
+      <c r="I436" s="18"/>
     </row>
     <row r="437" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A437" s="19"/>
@@ -10103,7 +10116,7 @@
       <c r="F437" s="19"/>
       <c r="G437" s="19"/>
       <c r="H437" s="19"/>
-      <c r="I437" s="20"/>
+      <c r="I437" s="18"/>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" s="19"/>
@@ -10118,7 +10131,7 @@
       <c r="F438" s="19"/>
       <c r="G438" s="19"/>
       <c r="H438" s="19"/>
-      <c r="I438" s="20"/>
+      <c r="I438" s="18"/>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" s="19"/>
@@ -10133,7 +10146,7 @@
       <c r="F439" s="19"/>
       <c r="G439" s="19"/>
       <c r="H439" s="19"/>
-      <c r="I439" s="20"/>
+      <c r="I439" s="18"/>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" s="19"/>
@@ -10148,7 +10161,7 @@
       <c r="F440" s="19"/>
       <c r="G440" s="19"/>
       <c r="H440" s="19"/>
-      <c r="I440" s="20"/>
+      <c r="I440" s="18"/>
     </row>
     <row r="441" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A441" s="19"/>
@@ -10163,7 +10176,7 @@
       <c r="F441" s="19"/>
       <c r="G441" s="19"/>
       <c r="H441" s="19"/>
-      <c r="I441" s="20"/>
+      <c r="I441" s="18"/>
     </row>
     <row r="442" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A442" s="19"/>
@@ -10178,7 +10191,7 @@
       <c r="F442" s="19"/>
       <c r="G442" s="19"/>
       <c r="H442" s="19"/>
-      <c r="I442" s="20"/>
+      <c r="I442" s="18"/>
     </row>
     <row r="443" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A443" s="19"/>
@@ -10193,7 +10206,7 @@
       <c r="F443" s="19"/>
       <c r="G443" s="19"/>
       <c r="H443" s="19"/>
-      <c r="I443" s="20"/>
+      <c r="I443" s="18"/>
     </row>
     <row r="444" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="19" t="s">
@@ -10218,7 +10231,7 @@
       <c r="H444" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I444" s="20" t="s">
+      <c r="I444" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10235,7 +10248,7 @@
       <c r="F445" s="19"/>
       <c r="G445" s="19"/>
       <c r="H445" s="19"/>
-      <c r="I445" s="20"/>
+      <c r="I445" s="18"/>
     </row>
     <row r="446" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A446" s="19"/>
@@ -10250,7 +10263,7 @@
       <c r="F446" s="19"/>
       <c r="G446" s="19"/>
       <c r="H446" s="19"/>
-      <c r="I446" s="20"/>
+      <c r="I446" s="18"/>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447" s="19"/>
@@ -10265,7 +10278,7 @@
       <c r="F447" s="19"/>
       <c r="G447" s="19"/>
       <c r="H447" s="19"/>
-      <c r="I447" s="20"/>
+      <c r="I447" s="18"/>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448" s="19"/>
@@ -10280,7 +10293,7 @@
       <c r="F448" s="19"/>
       <c r="G448" s="19"/>
       <c r="H448" s="19"/>
-      <c r="I448" s="20"/>
+      <c r="I448" s="18"/>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" s="19"/>
@@ -10295,7 +10308,7 @@
       <c r="F449" s="19"/>
       <c r="G449" s="19"/>
       <c r="H449" s="19"/>
-      <c r="I449" s="20"/>
+      <c r="I449" s="18"/>
     </row>
     <row r="450" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A450" s="19"/>
@@ -10310,7 +10323,7 @@
       <c r="F450" s="19"/>
       <c r="G450" s="19"/>
       <c r="H450" s="19"/>
-      <c r="I450" s="20"/>
+      <c r="I450" s="18"/>
     </row>
     <row r="451" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A451" s="19"/>
@@ -10325,7 +10338,7 @@
       <c r="F451" s="19"/>
       <c r="G451" s="19"/>
       <c r="H451" s="19"/>
-      <c r="I451" s="20"/>
+      <c r="I451" s="18"/>
     </row>
     <row r="452" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A452" s="19"/>
@@ -10340,7 +10353,7 @@
       <c r="F452" s="19"/>
       <c r="G452" s="19"/>
       <c r="H452" s="19"/>
-      <c r="I452" s="20"/>
+      <c r="I452" s="18"/>
     </row>
     <row r="453" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="19" t="s">
@@ -10365,7 +10378,7 @@
       <c r="H453" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I453" s="20" t="s">
+      <c r="I453" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10382,7 +10395,7 @@
       <c r="F454" s="19"/>
       <c r="G454" s="19"/>
       <c r="H454" s="19"/>
-      <c r="I454" s="20"/>
+      <c r="I454" s="18"/>
     </row>
     <row r="455" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A455" s="19"/>
@@ -10397,7 +10410,7 @@
       <c r="F455" s="19"/>
       <c r="G455" s="19"/>
       <c r="H455" s="19"/>
-      <c r="I455" s="20"/>
+      <c r="I455" s="18"/>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" s="19"/>
@@ -10412,7 +10425,7 @@
       <c r="F456" s="19"/>
       <c r="G456" s="19"/>
       <c r="H456" s="19"/>
-      <c r="I456" s="20"/>
+      <c r="I456" s="18"/>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457" s="19"/>
@@ -10427,7 +10440,7 @@
       <c r="F457" s="19"/>
       <c r="G457" s="19"/>
       <c r="H457" s="19"/>
-      <c r="I457" s="20"/>
+      <c r="I457" s="18"/>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" s="19"/>
@@ -10442,7 +10455,7 @@
       <c r="F458" s="19"/>
       <c r="G458" s="19"/>
       <c r="H458" s="19"/>
-      <c r="I458" s="20"/>
+      <c r="I458" s="18"/>
     </row>
     <row r="459" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A459" s="19"/>
@@ -10457,7 +10470,7 @@
       <c r="F459" s="19"/>
       <c r="G459" s="19"/>
       <c r="H459" s="19"/>
-      <c r="I459" s="20"/>
+      <c r="I459" s="18"/>
     </row>
     <row r="460" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A460" s="19"/>
@@ -10472,7 +10485,7 @@
       <c r="F460" s="19"/>
       <c r="G460" s="19"/>
       <c r="H460" s="19"/>
-      <c r="I460" s="20"/>
+      <c r="I460" s="18"/>
     </row>
     <row r="461" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A461" s="19"/>
@@ -10487,7 +10500,7 @@
       <c r="F461" s="19"/>
       <c r="G461" s="19"/>
       <c r="H461" s="19"/>
-      <c r="I461" s="20"/>
+      <c r="I461" s="18"/>
     </row>
     <row r="462" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="19" t="s">
@@ -10512,7 +10525,7 @@
       <c r="H462" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I462" s="20" t="s">
+      <c r="I462" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10529,7 +10542,7 @@
       <c r="F463" s="19"/>
       <c r="G463" s="19"/>
       <c r="H463" s="19"/>
-      <c r="I463" s="20"/>
+      <c r="I463" s="18"/>
     </row>
     <row r="464" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A464" s="19"/>
@@ -10544,7 +10557,7 @@
       <c r="F464" s="19"/>
       <c r="G464" s="19"/>
       <c r="H464" s="19"/>
-      <c r="I464" s="20"/>
+      <c r="I464" s="18"/>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" s="19"/>
@@ -10559,7 +10572,7 @@
       <c r="F465" s="19"/>
       <c r="G465" s="19"/>
       <c r="H465" s="19"/>
-      <c r="I465" s="20"/>
+      <c r="I465" s="18"/>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" s="19"/>
@@ -10574,7 +10587,7 @@
       <c r="F466" s="19"/>
       <c r="G466" s="19"/>
       <c r="H466" s="19"/>
-      <c r="I466" s="20"/>
+      <c r="I466" s="18"/>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467" s="19"/>
@@ -10589,7 +10602,7 @@
       <c r="F467" s="19"/>
       <c r="G467" s="19"/>
       <c r="H467" s="19"/>
-      <c r="I467" s="20"/>
+      <c r="I467" s="18"/>
     </row>
     <row r="468" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A468" s="19"/>
@@ -10604,7 +10617,7 @@
       <c r="F468" s="19"/>
       <c r="G468" s="19"/>
       <c r="H468" s="19"/>
-      <c r="I468" s="20"/>
+      <c r="I468" s="18"/>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" s="19"/>
@@ -10619,7 +10632,7 @@
       <c r="F469" s="19"/>
       <c r="G469" s="19"/>
       <c r="H469" s="19"/>
-      <c r="I469" s="20"/>
+      <c r="I469" s="18"/>
     </row>
     <row r="470" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A470" s="19"/>
@@ -10634,7 +10647,7 @@
       <c r="F470" s="19"/>
       <c r="G470" s="19"/>
       <c r="H470" s="19"/>
-      <c r="I470" s="20"/>
+      <c r="I470" s="18"/>
     </row>
     <row r="471" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="19" t="s">
@@ -10659,7 +10672,7 @@
       <c r="H471" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I471" s="20" t="s">
+      <c r="I471" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10676,7 +10689,7 @@
       <c r="F472" s="19"/>
       <c r="G472" s="19"/>
       <c r="H472" s="19"/>
-      <c r="I472" s="20"/>
+      <c r="I472" s="18"/>
     </row>
     <row r="473" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A473" s="19"/>
@@ -10691,7 +10704,7 @@
       <c r="F473" s="19"/>
       <c r="G473" s="19"/>
       <c r="H473" s="19"/>
-      <c r="I473" s="20"/>
+      <c r="I473" s="18"/>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" s="19"/>
@@ -10706,7 +10719,7 @@
       <c r="F474" s="19"/>
       <c r="G474" s="19"/>
       <c r="H474" s="19"/>
-      <c r="I474" s="20"/>
+      <c r="I474" s="18"/>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" s="19"/>
@@ -10721,7 +10734,7 @@
       <c r="F475" s="19"/>
       <c r="G475" s="19"/>
       <c r="H475" s="19"/>
-      <c r="I475" s="20"/>
+      <c r="I475" s="18"/>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" s="19"/>
@@ -10736,7 +10749,7 @@
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
       <c r="H476" s="19"/>
-      <c r="I476" s="20"/>
+      <c r="I476" s="18"/>
     </row>
     <row r="477" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A477" s="19"/>
@@ -10751,7 +10764,7 @@
       <c r="F477" s="19"/>
       <c r="G477" s="19"/>
       <c r="H477" s="19"/>
-      <c r="I477" s="20"/>
+      <c r="I477" s="18"/>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" s="19"/>
@@ -10766,7 +10779,7 @@
       <c r="F478" s="19"/>
       <c r="G478" s="19"/>
       <c r="H478" s="19"/>
-      <c r="I478" s="20"/>
+      <c r="I478" s="18"/>
     </row>
     <row r="479" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A479" s="19"/>
@@ -10781,7 +10794,7 @@
       <c r="F479" s="19"/>
       <c r="G479" s="19"/>
       <c r="H479" s="19"/>
-      <c r="I479" s="20"/>
+      <c r="I479" s="18"/>
     </row>
     <row r="480" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="19" t="s">
@@ -10806,7 +10819,7 @@
       <c r="H480" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I480" s="20" t="s">
+      <c r="I480" s="18" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10823,7 +10836,7 @@
       <c r="F481" s="19"/>
       <c r="G481" s="19"/>
       <c r="H481" s="19"/>
-      <c r="I481" s="20"/>
+      <c r="I481" s="18"/>
     </row>
     <row r="482" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A482" s="19"/>
@@ -10838,7 +10851,7 @@
       <c r="F482" s="19"/>
       <c r="G482" s="19"/>
       <c r="H482" s="19"/>
-      <c r="I482" s="20"/>
+      <c r="I482" s="18"/>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483" s="19"/>
@@ -10853,7 +10866,7 @@
       <c r="F483" s="19"/>
       <c r="G483" s="19"/>
       <c r="H483" s="19"/>
-      <c r="I483" s="20"/>
+      <c r="I483" s="18"/>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484" s="19"/>
@@ -10868,7 +10881,7 @@
       <c r="F484" s="19"/>
       <c r="G484" s="19"/>
       <c r="H484" s="19"/>
-      <c r="I484" s="20"/>
+      <c r="I484" s="18"/>
     </row>
     <row r="485" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A485" s="19"/>
@@ -10883,7 +10896,7 @@
       <c r="F485" s="19"/>
       <c r="G485" s="19"/>
       <c r="H485" s="19"/>
-      <c r="I485" s="20"/>
+      <c r="I485" s="18"/>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486" s="19"/>
@@ -10898,7 +10911,7 @@
       <c r="F486" s="19"/>
       <c r="G486" s="19"/>
       <c r="H486" s="19"/>
-      <c r="I486" s="20"/>
+      <c r="I486" s="18"/>
     </row>
     <row r="487" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A487" s="19"/>
@@ -10913,7 +10926,7 @@
       <c r="F487" s="19"/>
       <c r="G487" s="19"/>
       <c r="H487" s="19"/>
-      <c r="I487" s="20"/>
+      <c r="I487" s="18"/>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488" s="19" t="s">
@@ -10938,7 +10951,7 @@
       <c r="H488" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I488" s="20" t="s">
+      <c r="I488" s="18" t="s">
         <v>425</v>
       </c>
     </row>
@@ -10955,7 +10968,7 @@
       <c r="F489" s="19"/>
       <c r="G489" s="19"/>
       <c r="H489" s="19"/>
-      <c r="I489" s="20"/>
+      <c r="I489" s="18"/>
     </row>
     <row r="490" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A490" s="19"/>
@@ -10970,7 +10983,7 @@
       <c r="F490" s="19"/>
       <c r="G490" s="19"/>
       <c r="H490" s="19"/>
-      <c r="I490" s="20"/>
+      <c r="I490" s="18"/>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491" s="19"/>
@@ -10985,7 +10998,7 @@
       <c r="F491" s="19"/>
       <c r="G491" s="19"/>
       <c r="H491" s="19"/>
-      <c r="I491" s="20"/>
+      <c r="I491" s="18"/>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492" s="19"/>
@@ -11000,7 +11013,7 @@
       <c r="F492" s="19"/>
       <c r="G492" s="19"/>
       <c r="H492" s="19"/>
-      <c r="I492" s="20"/>
+      <c r="I492" s="18"/>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493" s="19"/>
@@ -11015,7 +11028,7 @@
       <c r="F493" s="19"/>
       <c r="G493" s="19"/>
       <c r="H493" s="19"/>
-      <c r="I493" s="20"/>
+      <c r="I493" s="18"/>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494" s="19"/>
@@ -11030,7 +11043,7 @@
       <c r="F494" s="19"/>
       <c r="G494" s="19"/>
       <c r="H494" s="19"/>
-      <c r="I494" s="20"/>
+      <c r="I494" s="18"/>
     </row>
     <row r="495" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A495" s="19"/>
@@ -11045,7 +11058,7 @@
       <c r="F495" s="19"/>
       <c r="G495" s="19"/>
       <c r="H495" s="19"/>
-      <c r="I495" s="20"/>
+      <c r="I495" s="18"/>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496" s="19" t="s">
@@ -11070,13 +11083,13 @@
       <c r="H496" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I496" s="20" t="s">
+      <c r="I496" s="18" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" s="19"/>
-      <c r="B497" s="22"/>
+      <c r="B497" s="25"/>
       <c r="C497" s="9" t="s">
         <v>165</v>
       </c>
@@ -11087,11 +11100,11 @@
       <c r="F497" s="19"/>
       <c r="G497" s="19"/>
       <c r="H497" s="19"/>
-      <c r="I497" s="20"/>
+      <c r="I497" s="18"/>
     </row>
     <row r="498" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A498" s="19"/>
-      <c r="B498" s="22"/>
+      <c r="B498" s="25"/>
       <c r="C498" s="9" t="s">
         <v>167</v>
       </c>
@@ -11102,11 +11115,11 @@
       <c r="F498" s="19"/>
       <c r="G498" s="19"/>
       <c r="H498" s="19"/>
-      <c r="I498" s="20"/>
+      <c r="I498" s="18"/>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499" s="19"/>
-      <c r="B499" s="22"/>
+      <c r="B499" s="25"/>
       <c r="C499" s="9" t="s">
         <v>169</v>
       </c>
@@ -11117,11 +11130,11 @@
       <c r="F499" s="19"/>
       <c r="G499" s="19"/>
       <c r="H499" s="19"/>
-      <c r="I499" s="20"/>
+      <c r="I499" s="18"/>
     </row>
     <row r="500" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A500" s="19"/>
-      <c r="B500" s="22"/>
+      <c r="B500" s="25"/>
       <c r="C500" s="9" t="s">
         <v>212</v>
       </c>
@@ -11132,11 +11145,11 @@
       <c r="F500" s="19"/>
       <c r="G500" s="19"/>
       <c r="H500" s="19"/>
-      <c r="I500" s="20"/>
+      <c r="I500" s="18"/>
     </row>
     <row r="501" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A501" s="19"/>
-      <c r="B501" s="22"/>
+      <c r="B501" s="25"/>
       <c r="C501" s="9" t="s">
         <v>390</v>
       </c>
@@ -11147,11 +11160,11 @@
       <c r="F501" s="19"/>
       <c r="G501" s="19"/>
       <c r="H501" s="19"/>
-      <c r="I501" s="20"/>
+      <c r="I501" s="18"/>
     </row>
     <row r="502" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A502" s="19"/>
-      <c r="B502" s="22"/>
+      <c r="B502" s="25"/>
       <c r="C502" s="9" t="s">
         <v>208</v>
       </c>
@@ -11162,7 +11175,7 @@
       <c r="F502" s="19"/>
       <c r="G502" s="19"/>
       <c r="H502" s="19"/>
-      <c r="I502" s="20"/>
+      <c r="I502" s="18"/>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A503" s="19" t="s">
@@ -11187,7 +11200,7 @@
       <c r="H503" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I503" s="20" t="s">
+      <c r="I503" s="18" t="s">
         <v>426</v>
       </c>
     </row>
@@ -11204,7 +11217,7 @@
       <c r="F504" s="19"/>
       <c r="G504" s="19"/>
       <c r="H504" s="19"/>
-      <c r="I504" s="20"/>
+      <c r="I504" s="18"/>
     </row>
     <row r="505" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A505" s="19"/>
@@ -11219,7 +11232,7 @@
       <c r="F505" s="19"/>
       <c r="G505" s="19"/>
       <c r="H505" s="19"/>
-      <c r="I505" s="20"/>
+      <c r="I505" s="18"/>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A506" s="19"/>
@@ -11234,7 +11247,7 @@
       <c r="F506" s="19"/>
       <c r="G506" s="19"/>
       <c r="H506" s="19"/>
-      <c r="I506" s="20"/>
+      <c r="I506" s="18"/>
     </row>
     <row r="507" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A507" s="19"/>
@@ -11249,7 +11262,7 @@
       <c r="F507" s="19"/>
       <c r="G507" s="19"/>
       <c r="H507" s="19"/>
-      <c r="I507" s="20"/>
+      <c r="I507" s="18"/>
     </row>
     <row r="508" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A508" s="19"/>
@@ -11264,7 +11277,7 @@
       <c r="F508" s="19"/>
       <c r="G508" s="19"/>
       <c r="H508" s="19"/>
-      <c r="I508" s="20"/>
+      <c r="I508" s="18"/>
     </row>
     <row r="509" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A509" s="19"/>
@@ -11279,7 +11292,7 @@
       <c r="F509" s="19"/>
       <c r="G509" s="19"/>
       <c r="H509" s="19"/>
-      <c r="I509" s="20"/>
+      <c r="I509" s="18"/>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A510" s="19" t="s">
@@ -11304,7 +11317,7 @@
       <c r="H510" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I510" s="20" t="s">
+      <c r="I510" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11321,7 +11334,7 @@
       <c r="F511" s="19"/>
       <c r="G511" s="19"/>
       <c r="H511" s="19"/>
-      <c r="I511" s="20"/>
+      <c r="I511" s="18"/>
     </row>
     <row r="512" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="19"/>
@@ -11336,7 +11349,7 @@
       <c r="F512" s="19"/>
       <c r="G512" s="19"/>
       <c r="H512" s="19"/>
-      <c r="I512" s="20"/>
+      <c r="I512" s="18"/>
     </row>
     <row r="513" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="19"/>
@@ -11351,7 +11364,7 @@
       <c r="F513" s="19"/>
       <c r="G513" s="19"/>
       <c r="H513" s="19"/>
-      <c r="I513" s="20"/>
+      <c r="I513" s="18"/>
     </row>
     <row r="514" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="19"/>
@@ -11366,7 +11379,7 @@
       <c r="F514" s="19"/>
       <c r="G514" s="19"/>
       <c r="H514" s="19"/>
-      <c r="I514" s="20"/>
+      <c r="I514" s="18"/>
     </row>
     <row r="515" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="19"/>
@@ -11381,7 +11394,7 @@
       <c r="F515" s="19"/>
       <c r="G515" s="19"/>
       <c r="H515" s="19"/>
-      <c r="I515" s="20"/>
+      <c r="I515" s="18"/>
     </row>
     <row r="516" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="19"/>
@@ -11396,7 +11409,7 @@
       <c r="F516" s="19"/>
       <c r="G516" s="19"/>
       <c r="H516" s="19"/>
-      <c r="I516" s="20"/>
+      <c r="I516" s="18"/>
     </row>
     <row r="517" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="19"/>
@@ -11411,7 +11424,7 @@
       <c r="F517" s="19"/>
       <c r="G517" s="19"/>
       <c r="H517" s="19"/>
-      <c r="I517" s="20"/>
+      <c r="I517" s="18"/>
     </row>
     <row r="518" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="19"/>
@@ -11426,7 +11439,7 @@
       <c r="F518" s="19"/>
       <c r="G518" s="19"/>
       <c r="H518" s="19"/>
-      <c r="I518" s="20"/>
+      <c r="I518" s="18"/>
     </row>
     <row r="519" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="19"/>
@@ -11441,7 +11454,7 @@
       <c r="F519" s="19"/>
       <c r="G519" s="19"/>
       <c r="H519" s="19"/>
-      <c r="I519" s="20"/>
+      <c r="I519" s="18"/>
     </row>
     <row r="520" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="19"/>
@@ -11456,7 +11469,7 @@
       <c r="F520" s="19"/>
       <c r="G520" s="19"/>
       <c r="H520" s="19"/>
-      <c r="I520" s="20"/>
+      <c r="I520" s="18"/>
     </row>
     <row r="521" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="19"/>
@@ -11471,7 +11484,7 @@
       <c r="F521" s="19"/>
       <c r="G521" s="19"/>
       <c r="H521" s="19"/>
-      <c r="I521" s="20"/>
+      <c r="I521" s="18"/>
     </row>
     <row r="522" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="19" t="s">
@@ -11496,7 +11509,7 @@
       <c r="H522" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I522" s="20" t="s">
+      <c r="I522" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11513,7 +11526,7 @@
       <c r="F523" s="19"/>
       <c r="G523" s="19"/>
       <c r="H523" s="19"/>
-      <c r="I523" s="20"/>
+      <c r="I523" s="18"/>
     </row>
     <row r="524" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A524" s="19"/>
@@ -11528,7 +11541,7 @@
       <c r="F524" s="19"/>
       <c r="G524" s="19"/>
       <c r="H524" s="19"/>
-      <c r="I524" s="20"/>
+      <c r="I524" s="18"/>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525" s="19"/>
@@ -11543,7 +11556,7 @@
       <c r="F525" s="19"/>
       <c r="G525" s="19"/>
       <c r="H525" s="19"/>
-      <c r="I525" s="20"/>
+      <c r="I525" s="18"/>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526" s="19"/>
@@ -11558,7 +11571,7 @@
       <c r="F526" s="19"/>
       <c r="G526" s="19"/>
       <c r="H526" s="19"/>
-      <c r="I526" s="20"/>
+      <c r="I526" s="18"/>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527" s="19"/>
@@ -11573,7 +11586,7 @@
       <c r="F527" s="19"/>
       <c r="G527" s="19"/>
       <c r="H527" s="19"/>
-      <c r="I527" s="20"/>
+      <c r="I527" s="18"/>
     </row>
     <row r="528" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A528" s="19"/>
@@ -11588,7 +11601,7 @@
       <c r="F528" s="19"/>
       <c r="G528" s="19"/>
       <c r="H528" s="19"/>
-      <c r="I528" s="20"/>
+      <c r="I528" s="18"/>
     </row>
     <row r="529" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A529" s="19"/>
@@ -11603,7 +11616,7 @@
       <c r="F529" s="19"/>
       <c r="G529" s="19"/>
       <c r="H529" s="19"/>
-      <c r="I529" s="20"/>
+      <c r="I529" s="18"/>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530" s="19" t="s">
@@ -11628,7 +11641,7 @@
       <c r="H530" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I530" s="20" t="s">
+      <c r="I530" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11645,7 +11658,7 @@
       <c r="F531" s="19"/>
       <c r="G531" s="19"/>
       <c r="H531" s="19"/>
-      <c r="I531" s="20"/>
+      <c r="I531" s="18"/>
     </row>
     <row r="532" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="19"/>
@@ -11660,7 +11673,7 @@
       <c r="F532" s="19"/>
       <c r="G532" s="19"/>
       <c r="H532" s="19"/>
-      <c r="I532" s="20"/>
+      <c r="I532" s="18"/>
     </row>
     <row r="533" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="19"/>
@@ -11675,7 +11688,7 @@
       <c r="F533" s="19"/>
       <c r="G533" s="19"/>
       <c r="H533" s="19"/>
-      <c r="I533" s="20"/>
+      <c r="I533" s="18"/>
     </row>
     <row r="534" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="19"/>
@@ -11690,7 +11703,7 @@
       <c r="F534" s="19"/>
       <c r="G534" s="19"/>
       <c r="H534" s="19"/>
-      <c r="I534" s="20"/>
+      <c r="I534" s="18"/>
     </row>
     <row r="535" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="19"/>
@@ -11705,7 +11718,7 @@
       <c r="F535" s="19"/>
       <c r="G535" s="19"/>
       <c r="H535" s="19"/>
-      <c r="I535" s="20"/>
+      <c r="I535" s="18"/>
     </row>
     <row r="536" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="19"/>
@@ -11720,7 +11733,7 @@
       <c r="F536" s="19"/>
       <c r="G536" s="19"/>
       <c r="H536" s="19"/>
-      <c r="I536" s="20"/>
+      <c r="I536" s="18"/>
     </row>
     <row r="537" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="19"/>
@@ -11735,7 +11748,7 @@
       <c r="F537" s="19"/>
       <c r="G537" s="19"/>
       <c r="H537" s="19"/>
-      <c r="I537" s="20"/>
+      <c r="I537" s="18"/>
     </row>
     <row r="538" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="19"/>
@@ -11750,7 +11763,7 @@
       <c r="F538" s="19"/>
       <c r="G538" s="19"/>
       <c r="H538" s="19"/>
-      <c r="I538" s="20"/>
+      <c r="I538" s="18"/>
     </row>
     <row r="539" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="19"/>
@@ -11765,7 +11778,7 @@
       <c r="F539" s="19"/>
       <c r="G539" s="19"/>
       <c r="H539" s="19"/>
-      <c r="I539" s="20"/>
+      <c r="I539" s="18"/>
     </row>
     <row r="540" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="19"/>
@@ -11780,7 +11793,7 @@
       <c r="F540" s="19"/>
       <c r="G540" s="19"/>
       <c r="H540" s="19"/>
-      <c r="I540" s="20"/>
+      <c r="I540" s="18"/>
     </row>
     <row r="541" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="19"/>
@@ -11795,7 +11808,7 @@
       <c r="F541" s="19"/>
       <c r="G541" s="19"/>
       <c r="H541" s="19"/>
-      <c r="I541" s="20"/>
+      <c r="I541" s="18"/>
     </row>
     <row r="542" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="19" t="s">
@@ -11820,7 +11833,7 @@
       <c r="H542" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="I542" s="20" t="s">
+      <c r="I542" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11837,7 +11850,7 @@
       <c r="F543" s="19"/>
       <c r="G543" s="19"/>
       <c r="H543" s="19"/>
-      <c r="I543" s="20"/>
+      <c r="I543" s="18"/>
     </row>
     <row r="544" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A544" s="19"/>
@@ -11852,7 +11865,7 @@
       <c r="F544" s="19"/>
       <c r="G544" s="19"/>
       <c r="H544" s="19"/>
-      <c r="I544" s="20"/>
+      <c r="I544" s="18"/>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A545" s="19"/>
@@ -11867,7 +11880,7 @@
       <c r="F545" s="19"/>
       <c r="G545" s="19"/>
       <c r="H545" s="19"/>
-      <c r="I545" s="20"/>
+      <c r="I545" s="18"/>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A546" s="19"/>
@@ -11882,7 +11895,7 @@
       <c r="F546" s="19"/>
       <c r="G546" s="19"/>
       <c r="H546" s="19"/>
-      <c r="I546" s="20"/>
+      <c r="I546" s="18"/>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A547" s="19"/>
@@ -11897,7 +11910,7 @@
       <c r="F547" s="19"/>
       <c r="G547" s="19"/>
       <c r="H547" s="19"/>
-      <c r="I547" s="20"/>
+      <c r="I547" s="18"/>
     </row>
     <row r="548" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A548" s="19"/>
@@ -11912,7 +11925,7 @@
       <c r="F548" s="19"/>
       <c r="G548" s="19"/>
       <c r="H548" s="19"/>
-      <c r="I548" s="20"/>
+      <c r="I548" s="18"/>
     </row>
     <row r="549" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A549" s="19"/>
@@ -11927,78 +11940,394 @@
       <c r="F549" s="19"/>
       <c r="G549" s="19"/>
       <c r="H549" s="19"/>
-      <c r="I549" s="20"/>
+      <c r="I549" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="476">
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I67:I74"/>
-    <mergeCell ref="I56:I66"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I148:I154"/>
-    <mergeCell ref="I135:I147"/>
-    <mergeCell ref="I106:I113"/>
-    <mergeCell ref="I93:I105"/>
-    <mergeCell ref="I87:I92"/>
-    <mergeCell ref="I75:I86"/>
-    <mergeCell ref="I232:I239"/>
-    <mergeCell ref="I224:I231"/>
-    <mergeCell ref="I212:I223"/>
-    <mergeCell ref="I200:I211"/>
-    <mergeCell ref="I190:I199"/>
-    <mergeCell ref="I184:I189"/>
-    <mergeCell ref="I179:I183"/>
-    <mergeCell ref="I170:I178"/>
-    <mergeCell ref="I155:I169"/>
-    <mergeCell ref="I114:I125"/>
-    <mergeCell ref="I126:I134"/>
-    <mergeCell ref="I302:I309"/>
-    <mergeCell ref="I294:I301"/>
-    <mergeCell ref="I286:I293"/>
-    <mergeCell ref="I278:I285"/>
-    <mergeCell ref="I270:I277"/>
-    <mergeCell ref="I264:I269"/>
-    <mergeCell ref="I256:I263"/>
-    <mergeCell ref="I248:I255"/>
-    <mergeCell ref="I240:I247"/>
-    <mergeCell ref="I383:I391"/>
-    <mergeCell ref="I374:I382"/>
-    <mergeCell ref="I365:I373"/>
-    <mergeCell ref="I352:I364"/>
-    <mergeCell ref="I339:I351"/>
-    <mergeCell ref="I332:I338"/>
-    <mergeCell ref="I326:I331"/>
-    <mergeCell ref="I318:I325"/>
-    <mergeCell ref="I310:I317"/>
-    <mergeCell ref="I462:I470"/>
-    <mergeCell ref="I453:I461"/>
-    <mergeCell ref="I444:I452"/>
-    <mergeCell ref="I435:I443"/>
-    <mergeCell ref="I426:I434"/>
-    <mergeCell ref="I417:I425"/>
-    <mergeCell ref="I410:I416"/>
-    <mergeCell ref="I401:I409"/>
-    <mergeCell ref="I392:I400"/>
-    <mergeCell ref="I542:I549"/>
-    <mergeCell ref="I530:I541"/>
-    <mergeCell ref="I522:I529"/>
-    <mergeCell ref="I510:I521"/>
-    <mergeCell ref="I496:I502"/>
-    <mergeCell ref="I503:I509"/>
-    <mergeCell ref="I488:I495"/>
-    <mergeCell ref="I480:I487"/>
-    <mergeCell ref="I471:I479"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A56:A66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="E56:E66"/>
+    <mergeCell ref="F56:F66"/>
+    <mergeCell ref="G56:G66"/>
+    <mergeCell ref="H56:H66"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="E75:E86"/>
+    <mergeCell ref="F75:F86"/>
+    <mergeCell ref="G75:G86"/>
+    <mergeCell ref="H75:H86"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="F67:F74"/>
+    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="H67:H74"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="B93:B105"/>
+    <mergeCell ref="E93:E105"/>
+    <mergeCell ref="F93:F105"/>
+    <mergeCell ref="G93:G105"/>
+    <mergeCell ref="H93:H105"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="E106:E113"/>
+    <mergeCell ref="F106:F113"/>
+    <mergeCell ref="G106:G113"/>
+    <mergeCell ref="H106:H113"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="F114:F125"/>
+    <mergeCell ref="G114:G125"/>
+    <mergeCell ref="H114:H125"/>
+    <mergeCell ref="B114:B125"/>
+    <mergeCell ref="A114:A125"/>
+    <mergeCell ref="A135:A147"/>
+    <mergeCell ref="B135:B147"/>
+    <mergeCell ref="E135:E147"/>
+    <mergeCell ref="F135:F147"/>
+    <mergeCell ref="G135:G147"/>
+    <mergeCell ref="H135:H147"/>
+    <mergeCell ref="A126:A134"/>
+    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="E126:E134"/>
+    <mergeCell ref="F126:F134"/>
+    <mergeCell ref="G126:G134"/>
+    <mergeCell ref="H126:H134"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="B155:B169"/>
+    <mergeCell ref="E155:E169"/>
+    <mergeCell ref="F155:F169"/>
+    <mergeCell ref="G155:G169"/>
+    <mergeCell ref="H155:H169"/>
+    <mergeCell ref="A148:A154"/>
+    <mergeCell ref="B148:B154"/>
+    <mergeCell ref="E148:E154"/>
+    <mergeCell ref="F148:F154"/>
+    <mergeCell ref="G148:G154"/>
+    <mergeCell ref="H148:H154"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="H179:H183"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="B170:B178"/>
+    <mergeCell ref="E170:E178"/>
+    <mergeCell ref="F170:F178"/>
+    <mergeCell ref="G170:G178"/>
+    <mergeCell ref="H170:H178"/>
+    <mergeCell ref="A190:A199"/>
+    <mergeCell ref="B190:B199"/>
+    <mergeCell ref="E190:E199"/>
+    <mergeCell ref="F190:F199"/>
+    <mergeCell ref="G190:G199"/>
+    <mergeCell ref="H190:H199"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="E184:E189"/>
+    <mergeCell ref="F184:F189"/>
+    <mergeCell ref="G184:G189"/>
+    <mergeCell ref="H184:H189"/>
+    <mergeCell ref="A212:A223"/>
+    <mergeCell ref="B212:B223"/>
+    <mergeCell ref="E212:E223"/>
+    <mergeCell ref="F212:F223"/>
+    <mergeCell ref="G212:G223"/>
+    <mergeCell ref="H212:H223"/>
+    <mergeCell ref="A200:A211"/>
+    <mergeCell ref="B200:B211"/>
+    <mergeCell ref="E200:E211"/>
+    <mergeCell ref="F200:F211"/>
+    <mergeCell ref="G200:G211"/>
+    <mergeCell ref="H200:H211"/>
+    <mergeCell ref="A232:A239"/>
+    <mergeCell ref="B232:B239"/>
+    <mergeCell ref="E232:E239"/>
+    <mergeCell ref="F232:F239"/>
+    <mergeCell ref="G232:G239"/>
+    <mergeCell ref="H232:H239"/>
+    <mergeCell ref="A224:A231"/>
+    <mergeCell ref="B224:B231"/>
+    <mergeCell ref="E224:E231"/>
+    <mergeCell ref="F224:F231"/>
+    <mergeCell ref="G224:G231"/>
+    <mergeCell ref="H224:H231"/>
+    <mergeCell ref="A248:A255"/>
+    <mergeCell ref="B248:B255"/>
+    <mergeCell ref="E248:E255"/>
+    <mergeCell ref="F248:F255"/>
+    <mergeCell ref="G248:G255"/>
+    <mergeCell ref="H248:H255"/>
+    <mergeCell ref="A240:A247"/>
+    <mergeCell ref="B240:B247"/>
+    <mergeCell ref="E240:E247"/>
+    <mergeCell ref="F240:F247"/>
+    <mergeCell ref="G240:G247"/>
+    <mergeCell ref="H240:H247"/>
+    <mergeCell ref="A264:A269"/>
+    <mergeCell ref="B264:B269"/>
+    <mergeCell ref="E264:E269"/>
+    <mergeCell ref="F264:F269"/>
+    <mergeCell ref="G264:G269"/>
+    <mergeCell ref="H264:H269"/>
+    <mergeCell ref="A256:A263"/>
+    <mergeCell ref="B256:B263"/>
+    <mergeCell ref="E256:E263"/>
+    <mergeCell ref="F256:F263"/>
+    <mergeCell ref="G256:G263"/>
+    <mergeCell ref="H256:H263"/>
+    <mergeCell ref="A278:A285"/>
+    <mergeCell ref="B278:B285"/>
+    <mergeCell ref="E278:E285"/>
+    <mergeCell ref="F278:F285"/>
+    <mergeCell ref="G278:G285"/>
+    <mergeCell ref="H278:H285"/>
+    <mergeCell ref="A270:A277"/>
+    <mergeCell ref="B270:B277"/>
+    <mergeCell ref="E270:E277"/>
+    <mergeCell ref="F270:F277"/>
+    <mergeCell ref="G270:G277"/>
+    <mergeCell ref="H270:H277"/>
+    <mergeCell ref="A294:A301"/>
+    <mergeCell ref="B294:B301"/>
+    <mergeCell ref="E294:E301"/>
+    <mergeCell ref="F294:F301"/>
+    <mergeCell ref="G294:G301"/>
+    <mergeCell ref="H294:H301"/>
+    <mergeCell ref="A286:A293"/>
+    <mergeCell ref="B286:B293"/>
+    <mergeCell ref="E286:E293"/>
+    <mergeCell ref="F286:F293"/>
+    <mergeCell ref="G286:G293"/>
+    <mergeCell ref="H286:H293"/>
+    <mergeCell ref="A310:A317"/>
+    <mergeCell ref="B310:B317"/>
+    <mergeCell ref="E310:E317"/>
+    <mergeCell ref="F310:F317"/>
+    <mergeCell ref="G310:G317"/>
+    <mergeCell ref="H310:H317"/>
+    <mergeCell ref="A302:A309"/>
+    <mergeCell ref="B302:B309"/>
+    <mergeCell ref="E302:E309"/>
+    <mergeCell ref="F302:F309"/>
+    <mergeCell ref="G302:G309"/>
+    <mergeCell ref="H302:H309"/>
+    <mergeCell ref="A326:A331"/>
+    <mergeCell ref="B326:B331"/>
+    <mergeCell ref="E326:E331"/>
+    <mergeCell ref="F326:F331"/>
+    <mergeCell ref="G326:G331"/>
+    <mergeCell ref="H326:H331"/>
+    <mergeCell ref="A318:A325"/>
+    <mergeCell ref="B318:B325"/>
+    <mergeCell ref="E318:E325"/>
+    <mergeCell ref="F318:F325"/>
+    <mergeCell ref="G318:G325"/>
+    <mergeCell ref="H318:H325"/>
+    <mergeCell ref="A339:A351"/>
+    <mergeCell ref="B339:B351"/>
+    <mergeCell ref="E339:E351"/>
+    <mergeCell ref="F339:F351"/>
+    <mergeCell ref="G339:G351"/>
+    <mergeCell ref="H339:H351"/>
+    <mergeCell ref="A332:A338"/>
+    <mergeCell ref="B332:B338"/>
+    <mergeCell ref="E332:E338"/>
+    <mergeCell ref="F332:F338"/>
+    <mergeCell ref="G332:G338"/>
+    <mergeCell ref="H332:H338"/>
+    <mergeCell ref="A365:A373"/>
+    <mergeCell ref="B365:B373"/>
+    <mergeCell ref="E365:E373"/>
+    <mergeCell ref="F365:F373"/>
+    <mergeCell ref="G365:G373"/>
+    <mergeCell ref="H365:H373"/>
+    <mergeCell ref="A352:A364"/>
+    <mergeCell ref="B352:B364"/>
+    <mergeCell ref="E352:E364"/>
+    <mergeCell ref="F352:F364"/>
+    <mergeCell ref="G352:G364"/>
+    <mergeCell ref="H352:H364"/>
+    <mergeCell ref="A383:A391"/>
+    <mergeCell ref="B383:B391"/>
+    <mergeCell ref="E383:E391"/>
+    <mergeCell ref="F383:F391"/>
+    <mergeCell ref="G383:G391"/>
+    <mergeCell ref="H383:H391"/>
+    <mergeCell ref="A374:A382"/>
+    <mergeCell ref="B374:B382"/>
+    <mergeCell ref="E374:E382"/>
+    <mergeCell ref="F374:F382"/>
+    <mergeCell ref="G374:G382"/>
+    <mergeCell ref="H374:H382"/>
+    <mergeCell ref="A401:A409"/>
+    <mergeCell ref="B401:B409"/>
+    <mergeCell ref="E401:E409"/>
+    <mergeCell ref="F401:F409"/>
+    <mergeCell ref="G401:G409"/>
+    <mergeCell ref="H401:H409"/>
+    <mergeCell ref="A392:A400"/>
+    <mergeCell ref="B392:B400"/>
+    <mergeCell ref="E392:E400"/>
+    <mergeCell ref="F392:F400"/>
+    <mergeCell ref="G392:G400"/>
+    <mergeCell ref="H392:H400"/>
+    <mergeCell ref="A417:A425"/>
+    <mergeCell ref="B417:B425"/>
+    <mergeCell ref="E417:E425"/>
+    <mergeCell ref="F417:F425"/>
+    <mergeCell ref="G417:G425"/>
+    <mergeCell ref="H417:H425"/>
+    <mergeCell ref="A410:A416"/>
+    <mergeCell ref="B410:B416"/>
+    <mergeCell ref="E410:E416"/>
+    <mergeCell ref="F410:F416"/>
+    <mergeCell ref="G410:G416"/>
+    <mergeCell ref="H410:H416"/>
+    <mergeCell ref="A435:A443"/>
+    <mergeCell ref="B435:B443"/>
+    <mergeCell ref="E435:E443"/>
+    <mergeCell ref="F435:F443"/>
+    <mergeCell ref="G435:G443"/>
+    <mergeCell ref="H435:H443"/>
+    <mergeCell ref="A426:A434"/>
+    <mergeCell ref="B426:B434"/>
+    <mergeCell ref="E426:E434"/>
+    <mergeCell ref="F426:F434"/>
+    <mergeCell ref="G426:G434"/>
+    <mergeCell ref="H426:H434"/>
+    <mergeCell ref="A453:A461"/>
+    <mergeCell ref="B453:B461"/>
+    <mergeCell ref="E453:E461"/>
+    <mergeCell ref="F453:F461"/>
+    <mergeCell ref="G453:G461"/>
+    <mergeCell ref="H453:H461"/>
+    <mergeCell ref="A444:A452"/>
+    <mergeCell ref="B444:B452"/>
+    <mergeCell ref="E444:E452"/>
+    <mergeCell ref="F444:F452"/>
+    <mergeCell ref="G444:G452"/>
+    <mergeCell ref="H444:H452"/>
+    <mergeCell ref="A471:A479"/>
+    <mergeCell ref="B471:B479"/>
+    <mergeCell ref="E471:E479"/>
+    <mergeCell ref="F471:F479"/>
+    <mergeCell ref="G471:G479"/>
+    <mergeCell ref="H471:H479"/>
+    <mergeCell ref="A462:A470"/>
+    <mergeCell ref="B462:B470"/>
+    <mergeCell ref="E462:E470"/>
+    <mergeCell ref="F462:F470"/>
+    <mergeCell ref="G462:G470"/>
+    <mergeCell ref="H462:H470"/>
+    <mergeCell ref="A488:A495"/>
+    <mergeCell ref="B488:B495"/>
+    <mergeCell ref="E488:E495"/>
+    <mergeCell ref="F488:F495"/>
+    <mergeCell ref="G488:G495"/>
+    <mergeCell ref="H488:H495"/>
+    <mergeCell ref="A480:A487"/>
+    <mergeCell ref="B480:B487"/>
+    <mergeCell ref="E480:E487"/>
+    <mergeCell ref="F480:F487"/>
+    <mergeCell ref="G480:G487"/>
+    <mergeCell ref="H480:H487"/>
+    <mergeCell ref="H510:H521"/>
+    <mergeCell ref="A503:A509"/>
+    <mergeCell ref="B503:B509"/>
+    <mergeCell ref="E503:E509"/>
+    <mergeCell ref="F503:F509"/>
+    <mergeCell ref="G503:G509"/>
+    <mergeCell ref="H503:H509"/>
+    <mergeCell ref="A496:A502"/>
+    <mergeCell ref="B496:B502"/>
+    <mergeCell ref="E496:E502"/>
+    <mergeCell ref="F496:F502"/>
+    <mergeCell ref="G496:G502"/>
+    <mergeCell ref="H496:H502"/>
     <mergeCell ref="H87:H92"/>
     <mergeCell ref="A542:A549"/>
     <mergeCell ref="B542:B549"/>
@@ -12023,390 +12352,74 @@
     <mergeCell ref="E510:E521"/>
     <mergeCell ref="F510:F521"/>
     <mergeCell ref="G510:G521"/>
-    <mergeCell ref="H510:H521"/>
-    <mergeCell ref="A503:A509"/>
-    <mergeCell ref="B503:B509"/>
-    <mergeCell ref="E503:E509"/>
-    <mergeCell ref="F503:F509"/>
-    <mergeCell ref="G503:G509"/>
-    <mergeCell ref="H503:H509"/>
-    <mergeCell ref="A496:A502"/>
-    <mergeCell ref="B496:B502"/>
-    <mergeCell ref="E496:E502"/>
-    <mergeCell ref="F496:F502"/>
-    <mergeCell ref="G496:G502"/>
-    <mergeCell ref="H496:H502"/>
-    <mergeCell ref="A488:A495"/>
-    <mergeCell ref="B488:B495"/>
-    <mergeCell ref="E488:E495"/>
-    <mergeCell ref="F488:F495"/>
-    <mergeCell ref="G488:G495"/>
-    <mergeCell ref="H488:H495"/>
-    <mergeCell ref="A480:A487"/>
-    <mergeCell ref="B480:B487"/>
-    <mergeCell ref="E480:E487"/>
-    <mergeCell ref="F480:F487"/>
-    <mergeCell ref="G480:G487"/>
-    <mergeCell ref="H480:H487"/>
-    <mergeCell ref="A471:A479"/>
-    <mergeCell ref="B471:B479"/>
-    <mergeCell ref="E471:E479"/>
-    <mergeCell ref="F471:F479"/>
-    <mergeCell ref="G471:G479"/>
-    <mergeCell ref="H471:H479"/>
-    <mergeCell ref="A462:A470"/>
-    <mergeCell ref="B462:B470"/>
-    <mergeCell ref="E462:E470"/>
-    <mergeCell ref="F462:F470"/>
-    <mergeCell ref="G462:G470"/>
-    <mergeCell ref="H462:H470"/>
-    <mergeCell ref="A453:A461"/>
-    <mergeCell ref="B453:B461"/>
-    <mergeCell ref="E453:E461"/>
-    <mergeCell ref="F453:F461"/>
-    <mergeCell ref="G453:G461"/>
-    <mergeCell ref="H453:H461"/>
-    <mergeCell ref="A444:A452"/>
-    <mergeCell ref="B444:B452"/>
-    <mergeCell ref="E444:E452"/>
-    <mergeCell ref="F444:F452"/>
-    <mergeCell ref="G444:G452"/>
-    <mergeCell ref="H444:H452"/>
-    <mergeCell ref="A435:A443"/>
-    <mergeCell ref="B435:B443"/>
-    <mergeCell ref="E435:E443"/>
-    <mergeCell ref="F435:F443"/>
-    <mergeCell ref="G435:G443"/>
-    <mergeCell ref="H435:H443"/>
-    <mergeCell ref="A426:A434"/>
-    <mergeCell ref="B426:B434"/>
-    <mergeCell ref="E426:E434"/>
-    <mergeCell ref="F426:F434"/>
-    <mergeCell ref="G426:G434"/>
-    <mergeCell ref="H426:H434"/>
-    <mergeCell ref="A417:A425"/>
-    <mergeCell ref="B417:B425"/>
-    <mergeCell ref="E417:E425"/>
-    <mergeCell ref="F417:F425"/>
-    <mergeCell ref="G417:G425"/>
-    <mergeCell ref="H417:H425"/>
-    <mergeCell ref="A410:A416"/>
-    <mergeCell ref="B410:B416"/>
-    <mergeCell ref="E410:E416"/>
-    <mergeCell ref="F410:F416"/>
-    <mergeCell ref="G410:G416"/>
-    <mergeCell ref="H410:H416"/>
-    <mergeCell ref="A401:A409"/>
-    <mergeCell ref="B401:B409"/>
-    <mergeCell ref="E401:E409"/>
-    <mergeCell ref="F401:F409"/>
-    <mergeCell ref="G401:G409"/>
-    <mergeCell ref="H401:H409"/>
-    <mergeCell ref="A392:A400"/>
-    <mergeCell ref="B392:B400"/>
-    <mergeCell ref="E392:E400"/>
-    <mergeCell ref="F392:F400"/>
-    <mergeCell ref="G392:G400"/>
-    <mergeCell ref="H392:H400"/>
-    <mergeCell ref="A383:A391"/>
-    <mergeCell ref="B383:B391"/>
-    <mergeCell ref="E383:E391"/>
-    <mergeCell ref="F383:F391"/>
-    <mergeCell ref="G383:G391"/>
-    <mergeCell ref="H383:H391"/>
-    <mergeCell ref="A374:A382"/>
-    <mergeCell ref="B374:B382"/>
-    <mergeCell ref="E374:E382"/>
-    <mergeCell ref="F374:F382"/>
-    <mergeCell ref="G374:G382"/>
-    <mergeCell ref="H374:H382"/>
-    <mergeCell ref="A365:A373"/>
-    <mergeCell ref="B365:B373"/>
-    <mergeCell ref="E365:E373"/>
-    <mergeCell ref="F365:F373"/>
-    <mergeCell ref="G365:G373"/>
-    <mergeCell ref="H365:H373"/>
-    <mergeCell ref="A352:A364"/>
-    <mergeCell ref="B352:B364"/>
-    <mergeCell ref="E352:E364"/>
-    <mergeCell ref="F352:F364"/>
-    <mergeCell ref="G352:G364"/>
-    <mergeCell ref="H352:H364"/>
-    <mergeCell ref="A339:A351"/>
-    <mergeCell ref="B339:B351"/>
-    <mergeCell ref="E339:E351"/>
-    <mergeCell ref="F339:F351"/>
-    <mergeCell ref="G339:G351"/>
-    <mergeCell ref="H339:H351"/>
-    <mergeCell ref="A332:A338"/>
-    <mergeCell ref="B332:B338"/>
-    <mergeCell ref="E332:E338"/>
-    <mergeCell ref="F332:F338"/>
-    <mergeCell ref="G332:G338"/>
-    <mergeCell ref="H332:H338"/>
-    <mergeCell ref="A326:A331"/>
-    <mergeCell ref="B326:B331"/>
-    <mergeCell ref="E326:E331"/>
-    <mergeCell ref="F326:F331"/>
-    <mergeCell ref="G326:G331"/>
-    <mergeCell ref="H326:H331"/>
-    <mergeCell ref="A318:A325"/>
-    <mergeCell ref="B318:B325"/>
-    <mergeCell ref="E318:E325"/>
-    <mergeCell ref="F318:F325"/>
-    <mergeCell ref="G318:G325"/>
-    <mergeCell ref="H318:H325"/>
-    <mergeCell ref="A310:A317"/>
-    <mergeCell ref="B310:B317"/>
-    <mergeCell ref="E310:E317"/>
-    <mergeCell ref="F310:F317"/>
-    <mergeCell ref="G310:G317"/>
-    <mergeCell ref="H310:H317"/>
-    <mergeCell ref="A302:A309"/>
-    <mergeCell ref="B302:B309"/>
-    <mergeCell ref="E302:E309"/>
-    <mergeCell ref="F302:F309"/>
-    <mergeCell ref="G302:G309"/>
-    <mergeCell ref="H302:H309"/>
-    <mergeCell ref="A294:A301"/>
-    <mergeCell ref="B294:B301"/>
-    <mergeCell ref="E294:E301"/>
-    <mergeCell ref="F294:F301"/>
-    <mergeCell ref="G294:G301"/>
-    <mergeCell ref="H294:H301"/>
-    <mergeCell ref="A286:A293"/>
-    <mergeCell ref="B286:B293"/>
-    <mergeCell ref="E286:E293"/>
-    <mergeCell ref="F286:F293"/>
-    <mergeCell ref="G286:G293"/>
-    <mergeCell ref="H286:H293"/>
-    <mergeCell ref="A278:A285"/>
-    <mergeCell ref="B278:B285"/>
-    <mergeCell ref="E278:E285"/>
-    <mergeCell ref="F278:F285"/>
-    <mergeCell ref="G278:G285"/>
-    <mergeCell ref="H278:H285"/>
-    <mergeCell ref="A270:A277"/>
-    <mergeCell ref="B270:B277"/>
-    <mergeCell ref="E270:E277"/>
-    <mergeCell ref="F270:F277"/>
-    <mergeCell ref="G270:G277"/>
-    <mergeCell ref="H270:H277"/>
-    <mergeCell ref="A264:A269"/>
-    <mergeCell ref="B264:B269"/>
-    <mergeCell ref="E264:E269"/>
-    <mergeCell ref="F264:F269"/>
-    <mergeCell ref="G264:G269"/>
-    <mergeCell ref="H264:H269"/>
-    <mergeCell ref="A256:A263"/>
-    <mergeCell ref="B256:B263"/>
-    <mergeCell ref="E256:E263"/>
-    <mergeCell ref="F256:F263"/>
-    <mergeCell ref="G256:G263"/>
-    <mergeCell ref="H256:H263"/>
-    <mergeCell ref="A248:A255"/>
-    <mergeCell ref="B248:B255"/>
-    <mergeCell ref="E248:E255"/>
-    <mergeCell ref="F248:F255"/>
-    <mergeCell ref="G248:G255"/>
-    <mergeCell ref="H248:H255"/>
-    <mergeCell ref="A240:A247"/>
-    <mergeCell ref="B240:B247"/>
-    <mergeCell ref="E240:E247"/>
-    <mergeCell ref="F240:F247"/>
-    <mergeCell ref="G240:G247"/>
-    <mergeCell ref="H240:H247"/>
-    <mergeCell ref="A232:A239"/>
-    <mergeCell ref="B232:B239"/>
-    <mergeCell ref="E232:E239"/>
-    <mergeCell ref="F232:F239"/>
-    <mergeCell ref="G232:G239"/>
-    <mergeCell ref="H232:H239"/>
-    <mergeCell ref="A224:A231"/>
-    <mergeCell ref="B224:B231"/>
-    <mergeCell ref="E224:E231"/>
-    <mergeCell ref="F224:F231"/>
-    <mergeCell ref="G224:G231"/>
-    <mergeCell ref="H224:H231"/>
-    <mergeCell ref="A212:A223"/>
-    <mergeCell ref="B212:B223"/>
-    <mergeCell ref="E212:E223"/>
-    <mergeCell ref="F212:F223"/>
-    <mergeCell ref="G212:G223"/>
-    <mergeCell ref="H212:H223"/>
-    <mergeCell ref="A200:A211"/>
-    <mergeCell ref="B200:B211"/>
-    <mergeCell ref="E200:E211"/>
-    <mergeCell ref="F200:F211"/>
-    <mergeCell ref="G200:G211"/>
-    <mergeCell ref="H200:H211"/>
-    <mergeCell ref="A190:A199"/>
-    <mergeCell ref="B190:B199"/>
-    <mergeCell ref="E190:E199"/>
-    <mergeCell ref="F190:F199"/>
-    <mergeCell ref="G190:G199"/>
-    <mergeCell ref="H190:H199"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="E184:E189"/>
-    <mergeCell ref="F184:F189"/>
-    <mergeCell ref="G184:G189"/>
-    <mergeCell ref="H184:H189"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="E179:E183"/>
-    <mergeCell ref="F179:F183"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="H179:H183"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="B170:B178"/>
-    <mergeCell ref="E170:E178"/>
-    <mergeCell ref="F170:F178"/>
-    <mergeCell ref="G170:G178"/>
-    <mergeCell ref="H170:H178"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="B155:B169"/>
-    <mergeCell ref="E155:E169"/>
-    <mergeCell ref="F155:F169"/>
-    <mergeCell ref="G155:G169"/>
-    <mergeCell ref="H155:H169"/>
-    <mergeCell ref="A148:A154"/>
-    <mergeCell ref="B148:B154"/>
-    <mergeCell ref="E148:E154"/>
-    <mergeCell ref="F148:F154"/>
-    <mergeCell ref="G148:G154"/>
-    <mergeCell ref="H148:H154"/>
-    <mergeCell ref="A135:A147"/>
-    <mergeCell ref="B135:B147"/>
-    <mergeCell ref="E135:E147"/>
-    <mergeCell ref="F135:F147"/>
-    <mergeCell ref="G135:G147"/>
-    <mergeCell ref="H135:H147"/>
-    <mergeCell ref="A126:A134"/>
-    <mergeCell ref="B126:B134"/>
-    <mergeCell ref="E126:E134"/>
-    <mergeCell ref="F126:F134"/>
-    <mergeCell ref="G126:G134"/>
-    <mergeCell ref="H126:H134"/>
-    <mergeCell ref="H93:H105"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="E106:E113"/>
-    <mergeCell ref="F106:F113"/>
-    <mergeCell ref="G106:G113"/>
-    <mergeCell ref="H106:H113"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="F114:F125"/>
-    <mergeCell ref="G114:G125"/>
-    <mergeCell ref="H114:H125"/>
-    <mergeCell ref="B114:B125"/>
-    <mergeCell ref="A114:A125"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="A93:A105"/>
-    <mergeCell ref="B93:B105"/>
-    <mergeCell ref="E93:E105"/>
-    <mergeCell ref="F93:F105"/>
-    <mergeCell ref="G93:G105"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="E75:E86"/>
-    <mergeCell ref="F75:F86"/>
-    <mergeCell ref="G75:G86"/>
-    <mergeCell ref="H75:H86"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="F67:F74"/>
-    <mergeCell ref="G67:G74"/>
-    <mergeCell ref="H67:H74"/>
-    <mergeCell ref="A56:A66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="E56:E66"/>
-    <mergeCell ref="F56:F66"/>
-    <mergeCell ref="G56:G66"/>
-    <mergeCell ref="H56:H66"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I542:I549"/>
+    <mergeCell ref="I530:I541"/>
+    <mergeCell ref="I522:I529"/>
+    <mergeCell ref="I510:I521"/>
+    <mergeCell ref="I496:I502"/>
+    <mergeCell ref="I503:I509"/>
+    <mergeCell ref="I488:I495"/>
+    <mergeCell ref="I480:I487"/>
+    <mergeCell ref="I471:I479"/>
+    <mergeCell ref="I462:I470"/>
+    <mergeCell ref="I453:I461"/>
+    <mergeCell ref="I444:I452"/>
+    <mergeCell ref="I435:I443"/>
+    <mergeCell ref="I426:I434"/>
+    <mergeCell ref="I417:I425"/>
+    <mergeCell ref="I410:I416"/>
+    <mergeCell ref="I401:I409"/>
+    <mergeCell ref="I392:I400"/>
+    <mergeCell ref="I383:I391"/>
+    <mergeCell ref="I374:I382"/>
+    <mergeCell ref="I365:I373"/>
+    <mergeCell ref="I352:I364"/>
+    <mergeCell ref="I339:I351"/>
+    <mergeCell ref="I332:I338"/>
+    <mergeCell ref="I326:I331"/>
+    <mergeCell ref="I318:I325"/>
+    <mergeCell ref="I310:I317"/>
+    <mergeCell ref="I302:I309"/>
+    <mergeCell ref="I294:I301"/>
+    <mergeCell ref="I286:I293"/>
+    <mergeCell ref="I278:I285"/>
+    <mergeCell ref="I270:I277"/>
+    <mergeCell ref="I264:I269"/>
+    <mergeCell ref="I256:I263"/>
+    <mergeCell ref="I248:I255"/>
+    <mergeCell ref="I240:I247"/>
+    <mergeCell ref="I148:I154"/>
+    <mergeCell ref="I135:I147"/>
+    <mergeCell ref="I106:I113"/>
+    <mergeCell ref="I93:I105"/>
+    <mergeCell ref="I87:I92"/>
+    <mergeCell ref="I75:I86"/>
+    <mergeCell ref="I232:I239"/>
+    <mergeCell ref="I224:I231"/>
+    <mergeCell ref="I212:I223"/>
+    <mergeCell ref="I200:I211"/>
+    <mergeCell ref="I190:I199"/>
+    <mergeCell ref="I184:I189"/>
+    <mergeCell ref="I179:I183"/>
+    <mergeCell ref="I170:I178"/>
+    <mergeCell ref="I155:I169"/>
+    <mergeCell ref="I114:I125"/>
+    <mergeCell ref="I126:I134"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I67:I74"/>
+    <mergeCell ref="I56:I66"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
